--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Annaba\2023-2024\Ingenieur\Projet 2Ing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amine/Documents/GitHub/AI_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E0BFC-84C0-B44F-AC31-B2C274F07C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -51,12 +52,141 @@
   </si>
   <si>
     <t>Classe</t>
+  </si>
+  <si>
+    <t>kadour</t>
+  </si>
+  <si>
+    <t>merieme</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>1 primer</t>
+  </si>
+  <si>
+    <t>4sur4</t>
+  </si>
+  <si>
+    <t>image 1</t>
+  </si>
+  <si>
+    <t>poupee</t>
+  </si>
+  <si>
+    <t>abdaoui</t>
+  </si>
+  <si>
+    <t>amir</t>
+  </si>
+  <si>
+    <t>garcon</t>
+  </si>
+  <si>
+    <t>3 primer</t>
+  </si>
+  <si>
+    <t>3sur3</t>
+  </si>
+  <si>
+    <t>image 2</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>chdadi</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>gafar</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>moiz</t>
+  </si>
+  <si>
+    <t>2sur2</t>
+  </si>
+  <si>
+    <t>ballon</t>
+  </si>
+  <si>
+    <t>logein</t>
+  </si>
+  <si>
+    <t>1sur1</t>
+  </si>
+  <si>
+    <t>boulifa</t>
+  </si>
+  <si>
+    <t>khalil</t>
+  </si>
+  <si>
+    <t>3sur4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mezrgich </t>
+  </si>
+  <si>
+    <t>merime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fille </t>
+  </si>
+  <si>
+    <t>iyad</t>
+  </si>
+  <si>
+    <t>islem</t>
+  </si>
+  <si>
+    <t>derwich</t>
+  </si>
+  <si>
+    <t>3sur5</t>
+  </si>
+  <si>
+    <t>4 primer</t>
+  </si>
+  <si>
+    <t>bombon</t>
+  </si>
+  <si>
+    <t>nadji</t>
+  </si>
+  <si>
+    <t>4sur5</t>
+  </si>
+  <si>
+    <t>wassim</t>
+  </si>
+  <si>
+    <t>5sur5</t>
+  </si>
+  <si>
+    <t>amouri</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>1sur2</t>
+  </si>
+  <si>
+    <t>aya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,12 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,9 +296,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,26 +541,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -471,202 +602,428 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -679,7 +1036,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -692,7 +1049,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -705,7 +1062,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -718,7 +1075,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -731,7 +1088,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -744,7 +1101,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -757,7 +1114,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -770,7 +1127,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -783,7 +1140,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -796,7 +1153,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -809,7 +1166,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -822,7 +1179,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -835,7 +1192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -848,7 +1205,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -861,7 +1218,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -881,24 +1238,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,69 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Annaba\2023-2024\Ingenieur\Projet 2Ing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Niveau_scolaire</t>
-  </si>
-  <si>
-    <t>Classement_fraternel</t>
-  </si>
-  <si>
-    <t>Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t>Ordre/Nb total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t>Classe</t>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau_scolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement_fraternel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordre/Nb total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,91 +97,107 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -167,269 +205,162 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,25 +371,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -466,16 +397,18 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -484,8 +417,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
@@ -497,8 +430,8 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
@@ -510,8 +443,8 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
@@ -523,8 +456,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
@@ -536,8 +469,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
@@ -549,8 +482,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
@@ -562,8 +495,8 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
@@ -575,8 +508,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
@@ -588,8 +521,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
@@ -601,8 +534,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
@@ -614,8 +547,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
@@ -627,8 +560,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
@@ -640,8 +573,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
@@ -653,8 +586,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
@@ -666,8 +599,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
@@ -679,8 +612,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
@@ -692,8 +625,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
@@ -705,8 +638,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
@@ -718,8 +651,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
@@ -731,8 +664,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
@@ -744,8 +677,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
@@ -757,8 +690,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
@@ -770,8 +703,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
@@ -783,8 +716,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
@@ -796,8 +729,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
@@ -809,8 +742,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="1"/>
@@ -822,8 +755,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="1"/>
@@ -835,8 +768,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
@@ -848,8 +781,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
@@ -861,8 +794,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="1"/>
@@ -875,31 +808,58 @@
       <c r="I33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -137,16 +137,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,462 +354,464 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -137,20 +137,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,464 +350,462 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,91 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amine/Documents/GitHub/AI_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E0BFC-84C0-B44F-AC31-B2C274F07C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prénom</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Niveau_scolaire</t>
+  </si>
+  <si>
+    <t>Classement_fraternel</t>
+  </si>
+  <si>
+    <t>Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t>Ordre/Nb total</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau_scolaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classement_fraternel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordre/Nb total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>kadour</t>
+  </si>
+  <si>
+    <t>merieme</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>1 primer</t>
+  </si>
+  <si>
+    <t>4sur4</t>
+  </si>
+  <si>
+    <t>image 1</t>
+  </si>
+  <si>
+    <t>poupee</t>
+  </si>
+  <si>
+    <t>abdaoui</t>
+  </si>
+  <si>
+    <t>amir</t>
+  </si>
+  <si>
+    <t>garcon</t>
+  </si>
+  <si>
+    <t>3 primer</t>
+  </si>
+  <si>
+    <t>3sur3</t>
+  </si>
+  <si>
+    <t>image 2</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>chdadi</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>gafar</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>moiz</t>
+  </si>
+  <si>
+    <t>2sur2</t>
+  </si>
+  <si>
+    <t>ballon</t>
+  </si>
+  <si>
+    <t>logein</t>
+  </si>
+  <si>
+    <t>1sur1</t>
+  </si>
+  <si>
+    <t>boulifa</t>
+  </si>
+  <si>
+    <t>khalil</t>
+  </si>
+  <si>
+    <t>3sur4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mezrgich </t>
+  </si>
+  <si>
+    <t>merime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fille </t>
+  </si>
+  <si>
+    <t>iyad</t>
+  </si>
+  <si>
+    <t>islem</t>
+  </si>
+  <si>
+    <t>derwich</t>
+  </si>
+  <si>
+    <t>3sur5</t>
+  </si>
+  <si>
+    <t>4 primer</t>
+  </si>
+  <si>
+    <t>bombon</t>
+  </si>
+  <si>
+    <t>nadji</t>
+  </si>
+  <si>
+    <t>4sur5</t>
+  </si>
+  <si>
+    <t>wassim</t>
+  </si>
+  <si>
+    <t>5sur5</t>
+  </si>
+  <si>
+    <t>amouri</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>1sur2</t>
+  </si>
+  <si>
+    <t>aya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,270 +205,362 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.29"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,25 +571,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -397,210 +597,434 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
@@ -612,8 +1036,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
@@ -625,8 +1049,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
@@ -638,8 +1062,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
@@ -651,8 +1075,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
@@ -664,8 +1088,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
@@ -677,8 +1101,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
@@ -690,8 +1114,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
@@ -703,8 +1127,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
@@ -716,8 +1140,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
@@ -729,8 +1153,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
@@ -742,8 +1166,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1"/>
@@ -755,8 +1179,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1"/>
@@ -768,8 +1192,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
@@ -781,8 +1205,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
@@ -794,8 +1218,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1"/>
@@ -808,58 +1232,31 @@
       <c r="I33" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,199 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amine/Documents/GitHub/AI_Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E0BFC-84C0-B44F-AC31-B2C274F07C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Niveau_scolaire</t>
-  </si>
-  <si>
-    <t>Classement_fraternel</t>
-  </si>
-  <si>
-    <t>Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t>Ordre/Nb total</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t>Classe</t>
-  </si>
-  <si>
-    <t>kadour</t>
-  </si>
-  <si>
-    <t>merieme</t>
-  </si>
-  <si>
-    <t>fille</t>
-  </si>
-  <si>
-    <t>1 primer</t>
-  </si>
-  <si>
-    <t>4sur4</t>
-  </si>
-  <si>
-    <t>image 1</t>
-  </si>
-  <si>
-    <t>poupee</t>
-  </si>
-  <si>
-    <t>abdaoui</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>garcon</t>
-  </si>
-  <si>
-    <t>3 primer</t>
-  </si>
-  <si>
-    <t>3sur3</t>
-  </si>
-  <si>
-    <t>image 2</t>
-  </si>
-  <si>
-    <t>voiture</t>
-  </si>
-  <si>
-    <t>chdadi</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>gafar</t>
-  </si>
-  <si>
-    <t>anas</t>
-  </si>
-  <si>
-    <t>moiz</t>
-  </si>
-  <si>
-    <t>2sur2</t>
-  </si>
-  <si>
-    <t>ballon</t>
-  </si>
-  <si>
-    <t>logein</t>
-  </si>
-  <si>
-    <t>1sur1</t>
-  </si>
-  <si>
-    <t>boulifa</t>
-  </si>
-  <si>
-    <t>khalil</t>
-  </si>
-  <si>
-    <t>3sur4</t>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau_scolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement_fraternel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordre/Nb total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merieme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4sur4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poupee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdaoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3sur3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chdadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2sur2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1sur1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boulifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3sur4</t>
   </si>
   <si>
     <t xml:space="preserve">mezrgich </t>
   </si>
   <si>
-    <t>merime</t>
+    <t xml:space="preserve">merime</t>
   </si>
   <si>
     <t xml:space="preserve">Fille </t>
   </si>
   <si>
-    <t>iyad</t>
-  </si>
-  <si>
-    <t>islem</t>
-  </si>
-  <si>
-    <t>derwich</t>
-  </si>
-  <si>
-    <t>3sur5</t>
-  </si>
-  <si>
-    <t>4 primer</t>
-  </si>
-  <si>
-    <t>bombon</t>
-  </si>
-  <si>
-    <t>nadji</t>
-  </si>
-  <si>
-    <t>4sur5</t>
-  </si>
-  <si>
-    <t>wassim</t>
-  </si>
-  <si>
-    <t>5sur5</t>
-  </si>
-  <si>
-    <t>amouri</t>
-  </si>
-  <si>
-    <t>fares</t>
-  </si>
-  <si>
-    <t>1sur2</t>
-  </si>
-  <si>
-    <t>aya</t>
+    <t xml:space="preserve">iyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4sur5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bombon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3sur5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wassim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5sur5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1sur2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,92 +224,111 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -298,269 +336,162 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,25 +502,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -597,13 +528,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -615,7 +546,7 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -631,8 +562,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -644,7 +575,7 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -660,8 +591,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -671,7 +602,7 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -687,8 +618,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -700,7 +631,7 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -713,38 +644,38 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
@@ -754,7 +685,7 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -766,8 +697,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -779,7 +710,7 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -795,8 +726,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -808,7 +739,7 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -824,8 +755,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
@@ -835,7 +766,7 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -848,11 +779,11 @@
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
@@ -862,7 +793,7 @@
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -875,11 +806,11 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -891,53 +822,53 @@
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -949,7 +880,7 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -965,8 +896,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -978,7 +909,7 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -991,11 +922,11 @@
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1007,14 +938,14 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -1023,8 +954,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
@@ -1036,8 +967,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
@@ -1049,8 +980,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
@@ -1062,8 +993,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
@@ -1075,8 +1006,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
@@ -1088,8 +1019,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
@@ -1101,8 +1032,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
@@ -1114,8 +1045,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
@@ -1127,8 +1058,8 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
@@ -1140,8 +1071,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
@@ -1153,8 +1084,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
@@ -1166,8 +1097,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="1"/>
@@ -1179,8 +1110,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="1"/>
@@ -1192,8 +1123,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
@@ -1205,8 +1136,8 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
@@ -1218,8 +1149,8 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="1"/>
@@ -1232,31 +1163,58 @@
       <c r="I33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -181,6 +181,141 @@
   </si>
   <si>
     <t xml:space="preserve">aya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdel hak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 éme année </t>
+  </si>
+  <si>
+    <t xml:space="preserve">voiture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounamous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marouane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ére année </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdel rahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bougouffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadjemeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 eme année </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 éme année </t>
+  </si>
+  <si>
+    <t xml:space="preserve">poupée </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mourad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ére</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 éme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 éme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherafa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameur Soualem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khouloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berezag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 éme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allaoua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chericheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malek</t>
   </si>
 </sst>
 </file>
@@ -264,20 +399,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,694 +616,2138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -316,6 +316,36 @@
   </si>
   <si>
     <t xml:space="preserve">Malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouzid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3eme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 eme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 eme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2sur3</t>
   </si>
 </sst>
 </file>
@@ -399,7 +429,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,10 +447,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,26 +1127,25 @@
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="0"/>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1128,26 +1153,26 @@
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1155,26 +1180,26 @@
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1182,26 +1207,26 @@
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1209,26 +1234,26 @@
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1236,26 +1261,26 @@
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1263,26 +1288,26 @@
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1290,26 +1315,26 @@
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1317,26 +1342,26 @@
       <c r="A26" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1344,26 +1369,26 @@
       <c r="A27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1371,26 +1396,26 @@
       <c r="A28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1398,26 +1423,26 @@
       <c r="A29" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1425,26 +1450,26 @@
       <c r="A30" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1452,26 +1477,26 @@
       <c r="A31" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1479,40 +1504,88 @@
       <c r="A32" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">Abbassi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatima</t>
   </si>
   <si>
     <t xml:space="preserve">3 eme</t>
@@ -644,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1566,7 +1563,7 @@
         <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>69</v>
@@ -1575,10 +1572,10 @@
         <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>100</v>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -15,14 +15,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="143">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -343,6 +343,114 @@
   </si>
   <si>
     <t xml:space="preserve">2sur3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chettab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hachmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soualhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouhanad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrousi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2eme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boustani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boustani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">farah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merzoug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aymen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boukachabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamseddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boudjmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nazim</t>
   </si>
 </sst>
 </file>
@@ -358,7 +466,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -641,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -657,7 +765,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1588,170 +1696,352 @@
       <c r="A35" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -2841,7 +3131,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2864,7 +3154,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -451,6 +451,21 @@
   </si>
   <si>
     <t xml:space="preserve">nazim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djaballah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behlouli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 eme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image2</t>
   </si>
 </sst>
 </file>
@@ -749,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,27 +2062,57 @@
       <c r="A48" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400F896-DFE3-491F-B0CB-5DAF758F7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,175 +29,175 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prénom</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau_scolaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classement_fraternel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordre/Nb total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kadour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merieme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4sur4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poupee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abdaoui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3sur3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voiture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chdadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gafar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2sur2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1sur1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boulifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khalil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3sur4</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Niveau_scolaire</t>
+  </si>
+  <si>
+    <t>Classement_fraternel</t>
+  </si>
+  <si>
+    <t>Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Ordre/Nb total</t>
+  </si>
+  <si>
+    <t>kadour</t>
+  </si>
+  <si>
+    <t>merieme</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>1 primer</t>
+  </si>
+  <si>
+    <t>4sur4</t>
+  </si>
+  <si>
+    <t>image 1</t>
+  </si>
+  <si>
+    <t>poupee</t>
+  </si>
+  <si>
+    <t>abdaoui</t>
+  </si>
+  <si>
+    <t>amir</t>
+  </si>
+  <si>
+    <t>garcon</t>
+  </si>
+  <si>
+    <t>3 primer</t>
+  </si>
+  <si>
+    <t>3sur3</t>
+  </si>
+  <si>
+    <t>image 2</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>chdadi</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>gafar</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>ballon</t>
+  </si>
+  <si>
+    <t>moiz</t>
+  </si>
+  <si>
+    <t>2sur2</t>
+  </si>
+  <si>
+    <t>logein</t>
+  </si>
+  <si>
+    <t>1sur1</t>
+  </si>
+  <si>
+    <t>boulifa</t>
+  </si>
+  <si>
+    <t>khalil</t>
+  </si>
+  <si>
+    <t>3sur4</t>
   </si>
   <si>
     <t xml:space="preserve">mezrgich </t>
   </si>
   <si>
-    <t xml:space="preserve">merime</t>
+    <t>merime</t>
   </si>
   <si>
     <t xml:space="preserve">Fille </t>
   </si>
   <si>
-    <t xml:space="preserve">iyad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4sur5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bombon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3sur5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wassim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5sur5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1sur2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdel hak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 ans</t>
+    <t>iyad</t>
+  </si>
+  <si>
+    <t>islem</t>
+  </si>
+  <si>
+    <t>derwich</t>
+  </si>
+  <si>
+    <t>4sur5</t>
+  </si>
+  <si>
+    <t>bombon</t>
+  </si>
+  <si>
+    <t>nadji</t>
+  </si>
+  <si>
+    <t>4 primer</t>
+  </si>
+  <si>
+    <t>3sur5</t>
+  </si>
+  <si>
+    <t>wassim</t>
+  </si>
+  <si>
+    <t>5sur5</t>
+  </si>
+  <si>
+    <t>amouri</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>1sur2</t>
+  </si>
+  <si>
+    <t>aya</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Abdel hak</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>7 ans</t>
   </si>
   <si>
     <t xml:space="preserve">2 éme année </t>
@@ -201,58 +206,58 @@
     <t xml:space="preserve">voiture </t>
   </si>
   <si>
-    <t xml:space="preserve">Bounamous</t>
+    <t>Bounamous</t>
   </si>
   <si>
     <t xml:space="preserve">Marouane </t>
   </si>
   <si>
-    <t xml:space="preserve">6 ans</t>
+    <t>6 ans</t>
   </si>
   <si>
     <t xml:space="preserve">1 ére année </t>
   </si>
   <si>
-    <t xml:space="preserve">abdel rahmane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bougouffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadjemeddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 ans</t>
+    <t>abdel rahmane</t>
+  </si>
+  <si>
+    <t>Bougouffa</t>
+  </si>
+  <si>
+    <t>nadjemeddine</t>
+  </si>
+  <si>
+    <t>bonbon</t>
+  </si>
+  <si>
+    <t>Brahimi</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>8 ans</t>
   </si>
   <si>
     <t xml:space="preserve">3 eme année </t>
   </si>
   <si>
-    <t xml:space="preserve">image 3</t>
+    <t>image 3</t>
   </si>
   <si>
     <t xml:space="preserve">animal </t>
   </si>
   <si>
-    <t xml:space="preserve">Ayada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 ans</t>
+    <t>Ayada</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>9 ans</t>
   </si>
   <si>
     <t xml:space="preserve">4 éme année </t>
@@ -261,243 +266,226 @@
     <t xml:space="preserve">poupée </t>
   </si>
   <si>
-    <t xml:space="preserve">Absi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mourad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ére</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 éme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 éme</t>
+    <t>Absi</t>
+  </si>
+  <si>
+    <t>Mourad</t>
+  </si>
+  <si>
+    <t>1 ére</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>4 éme</t>
+  </si>
+  <si>
+    <t>Cherafa</t>
+  </si>
+  <si>
+    <t>Marame</t>
+  </si>
+  <si>
+    <t>2 éme</t>
   </si>
   <si>
     <t xml:space="preserve">Cherafa </t>
   </si>
   <si>
-    <t xml:space="preserve">Louay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameur Soualem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khouloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berezag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 éme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allaoua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chericheri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouzid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3eme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youssef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 eme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbassi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 eme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2sur3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chettab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hachmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ans</t>
+    <t>Louay</t>
+  </si>
+  <si>
+    <t>Ameur Soualem</t>
+  </si>
+  <si>
+    <t>Khouloud</t>
+  </si>
+  <si>
+    <t>Berezag</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>3 éme</t>
+  </si>
+  <si>
+    <t>Allaoua</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>chericheri</t>
+  </si>
+  <si>
+    <t>Malek</t>
+  </si>
+  <si>
+    <t>Bouzid</t>
+  </si>
+  <si>
+    <t>3eme</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>4 eme</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Abbassi</t>
+  </si>
+  <si>
+    <t>3 eme</t>
+  </si>
+  <si>
+    <t>2sur3</t>
+  </si>
+  <si>
+    <t>chettab</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>1 ere</t>
+  </si>
+  <si>
+    <t>hachmi</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>8ans</t>
   </si>
   <si>
     <t xml:space="preserve">soualhi </t>
   </si>
   <si>
-    <t xml:space="preserve">mouhanad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amrousi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diaeddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2eme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boustani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ere</t>
+    <t>mouhanad</t>
+  </si>
+  <si>
+    <t>balon</t>
+  </si>
+  <si>
+    <t>malek</t>
+  </si>
+  <si>
+    <t>amrousi</t>
+  </si>
+  <si>
+    <t>diaeddine</t>
+  </si>
+  <si>
+    <t>2eme</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>boustani</t>
+  </si>
+  <si>
+    <t>hamza</t>
+  </si>
+  <si>
+    <t>1ere</t>
   </si>
   <si>
     <t xml:space="preserve">boustani </t>
   </si>
   <si>
-    <t xml:space="preserve">farah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merzoug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islam</t>
+    <t>farah</t>
+  </si>
+  <si>
+    <t>6ans</t>
+  </si>
+  <si>
+    <t>merzoug</t>
+  </si>
+  <si>
+    <t>aymen</t>
+  </si>
+  <si>
+    <t>zenati</t>
+  </si>
+  <si>
+    <t>islam</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">boukachabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chamseddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sayfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boudjmaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djaballah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behlouli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 eme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image2</t>
+    <t>boukachabia</t>
+  </si>
+  <si>
+    <t>chamseddine</t>
+  </si>
+  <si>
+    <t>7ans</t>
+  </si>
+  <si>
+    <t>image3</t>
+  </si>
+  <si>
+    <t>sayfi</t>
+  </si>
+  <si>
+    <t>nour</t>
+  </si>
+  <si>
+    <t>rahani</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>pouppet</t>
+  </si>
+  <si>
+    <t>boudjmaa</t>
+  </si>
+  <si>
+    <t>nazim</t>
+  </si>
+  <si>
+    <t>djaballah</t>
+  </si>
+  <si>
+    <t>behlouli</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>1 eme</t>
+  </si>
+  <si>
+    <t>Image2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,115 +497,96 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -625,12 +594,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -659,7 +628,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -680,7 +649,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -731,7 +700,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -749,38 +718,37 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -822,8 +790,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -835,7 +803,7 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="5">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -851,8 +819,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -864,7 +832,7 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -880,8 +848,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -891,7 +859,7 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="5">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -907,8 +875,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -920,7 +888,7 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="5">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -936,8 +904,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -947,7 +915,7 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="5">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -963,8 +931,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -974,7 +942,7 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="5">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -986,8 +954,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -999,7 +967,7 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="5">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1015,8 +983,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1028,7 +996,7 @@
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="5">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1044,8 +1012,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
@@ -1055,7 +1023,7 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="5">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1071,8 +1039,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
@@ -1082,7 +1050,7 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="5">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1098,8 +1066,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1111,7 +1079,7 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="5">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1127,8 +1095,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1140,7 +1108,7 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="5">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1156,8 +1124,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1169,7 +1137,7 @@
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="5">
         <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1185,8 +1153,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1198,7 +1166,7 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="5">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1214,8 +1182,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1227,7 +1195,7 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="5">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1243,8 +1211,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1269,8 +1237,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1296,8 +1264,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1323,8 +1291,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1350,8 +1318,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1377,8 +1345,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1404,8 +1372,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1431,8 +1399,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1458,8 +1426,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1485,8 +1453,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1512,8 +1480,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1539,8 +1507,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1566,8 +1534,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1593,8 +1561,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1620,8 +1588,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1649,8 +1617,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1678,8 +1646,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1707,8 +1675,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1734,8 +1702,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1761,8 +1729,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1788,8 +1756,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1815,8 +1783,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1842,8 +1810,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1869,8 +1837,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1896,8 +1864,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1923,8 +1891,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1952,8 +1920,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1979,8 +1947,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2006,8 +1974,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2033,8 +2001,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2058,8 +2026,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2087,8 +2055,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2114,8 +2082,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="2"/>
@@ -2127,8 +2095,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="2"/>
@@ -2140,8 +2108,8 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
       <c r="B52" s="2"/>
@@ -2153,8 +2121,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
       <c r="B53" s="2"/>
@@ -2166,8 +2134,8 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="B54" s="2"/>
@@ -2179,8 +2147,8 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
       <c r="B55" s="2"/>
@@ -2192,8 +2160,8 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="B56" s="2"/>
@@ -2205,8 +2173,8 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="B57" s="2"/>
@@ -2218,8 +2186,8 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
       <c r="B58" s="2"/>
@@ -2231,8 +2199,8 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="B59" s="2"/>
@@ -2244,8 +2212,8 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
       <c r="B60" s="2"/>
@@ -2257,8 +2225,8 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
       <c r="B61" s="2"/>
@@ -2270,8 +2238,8 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
       <c r="B62" s="2"/>
@@ -2283,8 +2251,8 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>60</v>
       </c>
       <c r="B63" s="2"/>
@@ -2296,8 +2264,8 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
       <c r="B64" s="2"/>
@@ -2309,8 +2277,8 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>62</v>
       </c>
       <c r="B65" s="2"/>
@@ -2322,8 +2290,8 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>63</v>
       </c>
       <c r="B66" s="2"/>
@@ -2335,8 +2303,8 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>64</v>
       </c>
       <c r="B67" s="2"/>
@@ -2348,8 +2316,8 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>65</v>
       </c>
       <c r="B68" s="2"/>
@@ -2361,8 +2329,8 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>66</v>
       </c>
       <c r="B69" s="2"/>
@@ -2374,8 +2342,8 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>67</v>
       </c>
       <c r="B70" s="2"/>
@@ -2387,8 +2355,8 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>68</v>
       </c>
       <c r="B71" s="2"/>
@@ -2400,8 +2368,8 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>69</v>
       </c>
       <c r="B72" s="2"/>
@@ -2413,8 +2381,8 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>70</v>
       </c>
       <c r="B73" s="2"/>
@@ -2426,8 +2394,8 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>71</v>
       </c>
       <c r="B74" s="2"/>
@@ -2439,8 +2407,8 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>72</v>
       </c>
       <c r="B75" s="2"/>
@@ -2452,8 +2420,8 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>73</v>
       </c>
       <c r="B76" s="2"/>
@@ -2465,8 +2433,8 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>74</v>
       </c>
       <c r="B77" s="2"/>
@@ -2478,8 +2446,8 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>75</v>
       </c>
       <c r="B78" s="2"/>
@@ -2491,8 +2459,8 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>76</v>
       </c>
       <c r="B79" s="2"/>
@@ -2504,8 +2472,8 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>77</v>
       </c>
       <c r="B80" s="2"/>
@@ -2517,8 +2485,8 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>78</v>
       </c>
       <c r="B81" s="2"/>
@@ -2530,8 +2498,8 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>79</v>
       </c>
       <c r="B82" s="2"/>
@@ -2543,8 +2511,8 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>80</v>
       </c>
       <c r="B83" s="2"/>
@@ -2556,8 +2524,8 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>81</v>
       </c>
       <c r="B84" s="2"/>
@@ -2569,8 +2537,8 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>82</v>
       </c>
       <c r="B85" s="2"/>
@@ -2582,8 +2550,8 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>83</v>
       </c>
       <c r="B86" s="2"/>
@@ -2595,8 +2563,8 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>84</v>
       </c>
       <c r="B87" s="2"/>
@@ -2608,8 +2576,8 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>85</v>
       </c>
       <c r="B88" s="2"/>
@@ -2621,8 +2589,8 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>86</v>
       </c>
       <c r="B89" s="2"/>
@@ -2634,8 +2602,8 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>87</v>
       </c>
       <c r="B90" s="2"/>
@@ -2647,8 +2615,8 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>88</v>
       </c>
       <c r="B91" s="2"/>
@@ -2660,8 +2628,8 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>89</v>
       </c>
       <c r="B92" s="2"/>
@@ -2673,8 +2641,8 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>90</v>
       </c>
       <c r="B93" s="2"/>
@@ -2686,8 +2654,8 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>91</v>
       </c>
       <c r="B94" s="2"/>
@@ -2699,8 +2667,8 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>92</v>
       </c>
       <c r="B95" s="2"/>
@@ -2712,8 +2680,8 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>93</v>
       </c>
       <c r="B96" s="2"/>
@@ -2725,8 +2693,8 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>94</v>
       </c>
       <c r="B97" s="2"/>
@@ -2738,8 +2706,8 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>95</v>
       </c>
       <c r="B98" s="2"/>
@@ -2751,8 +2719,8 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>96</v>
       </c>
       <c r="B99" s="2"/>
@@ -2764,8 +2732,8 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>97</v>
       </c>
       <c r="B100" s="2"/>
@@ -2777,8 +2745,8 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>98</v>
       </c>
       <c r="B101" s="2"/>
@@ -2790,8 +2758,8 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>99</v>
       </c>
       <c r="B102" s="2"/>
@@ -2803,8 +2771,8 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>100</v>
       </c>
       <c r="B103" s="2"/>
@@ -2816,8 +2784,8 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>101</v>
       </c>
       <c r="B104" s="2"/>
@@ -2829,8 +2797,8 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>102</v>
       </c>
       <c r="B105" s="2"/>
@@ -2842,8 +2810,8 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>103</v>
       </c>
       <c r="B106" s="2"/>
@@ -2855,8 +2823,8 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>104</v>
       </c>
       <c r="B107" s="2"/>
@@ -2868,8 +2836,8 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>105</v>
       </c>
       <c r="B108" s="2"/>
@@ -2881,8 +2849,8 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>106</v>
       </c>
       <c r="B109" s="2"/>
@@ -2894,8 +2862,8 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>107</v>
       </c>
       <c r="B110" s="2"/>
@@ -2907,8 +2875,8 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>108</v>
       </c>
       <c r="B111" s="2"/>
@@ -2920,8 +2888,8 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>109</v>
       </c>
       <c r="B112" s="2"/>
@@ -2933,8 +2901,8 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>110</v>
       </c>
       <c r="B113" s="2"/>
@@ -2946,8 +2914,8 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>111</v>
       </c>
       <c r="B114" s="2"/>
@@ -2959,8 +2927,8 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>112</v>
       </c>
       <c r="B115" s="2"/>
@@ -2972,8 +2940,8 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>113</v>
       </c>
       <c r="B116" s="2"/>
@@ -2985,8 +2953,8 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>114</v>
       </c>
       <c r="B117" s="2"/>
@@ -2998,8 +2966,8 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>115</v>
       </c>
       <c r="B118" s="2"/>
@@ -3011,8 +2979,8 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>116</v>
       </c>
       <c r="B119" s="2"/>
@@ -3024,8 +2992,8 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>117</v>
       </c>
       <c r="B120" s="2"/>
@@ -3037,8 +3005,8 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>118</v>
       </c>
       <c r="B121" s="2"/>
@@ -3050,8 +3018,8 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>119</v>
       </c>
       <c r="B122" s="2"/>
@@ -3063,8 +3031,8 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>120</v>
       </c>
       <c r="B123" s="2"/>
@@ -3076,8 +3044,8 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>121</v>
       </c>
       <c r="B124" s="2"/>
@@ -3089,8 +3057,8 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>122</v>
       </c>
       <c r="B125" s="2"/>
@@ -3102,8 +3070,8 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>123</v>
       </c>
       <c r="B126" s="2"/>
@@ -3115,8 +3083,8 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>124</v>
       </c>
       <c r="B127" s="2"/>
@@ -3128,8 +3096,8 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>125</v>
       </c>
       <c r="B128" s="2"/>
@@ -3141,8 +3109,8 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>126</v>
       </c>
       <c r="B129" s="2"/>
@@ -3155,58 +3123,33 @@
       <c r="I129" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400F896-DFE3-491F-B0CB-5DAF758F7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7450D7-24E9-41DC-9EDD-48797B803EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -471,6 +471,282 @@
   </si>
   <si>
     <t>Image2</t>
+  </si>
+  <si>
+    <t>Chofa</t>
+  </si>
+  <si>
+    <t>Sajed</t>
+  </si>
+  <si>
+    <t>Garçon</t>
+  </si>
+  <si>
+    <t>3 ème primaire</t>
+  </si>
+  <si>
+    <t>(1/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 1 </t>
+  </si>
+  <si>
+    <t>Ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrouse </t>
+  </si>
+  <si>
+    <t>Firas</t>
+  </si>
+  <si>
+    <t>(1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziyadi </t>
+  </si>
+  <si>
+    <t>(2/3)</t>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Khlefi</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>(1/1)</t>
+  </si>
+  <si>
+    <t>Poupée</t>
+  </si>
+  <si>
+    <t>Nouwara</t>
+  </si>
+  <si>
+    <t>Mohamed Yacine</t>
+  </si>
+  <si>
+    <t>(2/2)</t>
+  </si>
+  <si>
+    <t>Nouri</t>
+  </si>
+  <si>
+    <t>Adem</t>
+  </si>
+  <si>
+    <t>Voiture</t>
+  </si>
+  <si>
+    <t>Boumanjel</t>
+  </si>
+  <si>
+    <t>Haitem</t>
+  </si>
+  <si>
+    <t>Bonbon</t>
+  </si>
+  <si>
+    <t>Berak</t>
+  </si>
+  <si>
+    <t>Soltani</t>
+  </si>
+  <si>
+    <t>Ratile sounedes</t>
+  </si>
+  <si>
+    <t>Chaweche</t>
+  </si>
+  <si>
+    <t>Rime</t>
+  </si>
+  <si>
+    <t>Boudchicha</t>
+  </si>
+  <si>
+    <t>Anes</t>
+  </si>
+  <si>
+    <t>Aitikhlef</t>
+  </si>
+  <si>
+    <t>Arilase</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Rezaki</t>
+  </si>
+  <si>
+    <t>1 ème primaire</t>
+  </si>
+  <si>
+    <t>Taleb</t>
+  </si>
+  <si>
+    <t>Assil</t>
+  </si>
+  <si>
+    <t>Razouk</t>
+  </si>
+  <si>
+    <t>Kabise</t>
+  </si>
+  <si>
+    <t>(3/3)</t>
+  </si>
+  <si>
+    <t>Bouakal</t>
+  </si>
+  <si>
+    <t>Racim</t>
+  </si>
+  <si>
+    <t>Bakouche</t>
+  </si>
+  <si>
+    <t>Zinedinne</t>
+  </si>
+  <si>
+    <t>Satouh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayrem  </t>
+  </si>
+  <si>
+    <t>Akrem</t>
+  </si>
+  <si>
+    <t>Bouajada</t>
+  </si>
+  <si>
+    <t>Nour el houda</t>
+  </si>
+  <si>
+    <t>5 ème primaire</t>
+  </si>
+  <si>
+    <t>khchman</t>
+  </si>
+  <si>
+    <t>Lokmane</t>
+  </si>
+  <si>
+    <t>Bourasase</t>
+  </si>
+  <si>
+    <t>Fadi</t>
+  </si>
+  <si>
+    <t>Boudakhana</t>
+  </si>
+  <si>
+    <t>Harone</t>
+  </si>
+  <si>
+    <t>boallse</t>
+  </si>
+  <si>
+    <t>Abd el kader</t>
+  </si>
+  <si>
+    <t>Medrouae</t>
+  </si>
+  <si>
+    <t>2 ème primaire</t>
+  </si>
+  <si>
+    <t>Bouhafer</t>
+  </si>
+  <si>
+    <t>Abd Rhime</t>
+  </si>
+  <si>
+    <t>Lkhlefi</t>
+  </si>
+  <si>
+    <t>Idrisse</t>
+  </si>
+  <si>
+    <t>Lefoul</t>
+  </si>
+  <si>
+    <t>Rimase</t>
+  </si>
+  <si>
+    <t>Atoui</t>
+  </si>
+  <si>
+    <t>Kawthar</t>
+  </si>
+  <si>
+    <t>Bouassida</t>
+  </si>
+  <si>
+    <t>Manar</t>
+  </si>
+  <si>
+    <t>Boziyou</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Faydi</t>
+  </si>
+  <si>
+    <t>Khawla</t>
+  </si>
+  <si>
+    <t>Harwadi</t>
+  </si>
+  <si>
+    <t>Kenza</t>
+  </si>
+  <si>
+    <t>Soltan</t>
+  </si>
+  <si>
+    <t>Bouabssa</t>
+  </si>
+  <si>
+    <t>Nidal</t>
+  </si>
+  <si>
+    <t>Larked</t>
+  </si>
+  <si>
+    <t>Mohamed Said</t>
+  </si>
+  <si>
+    <t>Benamara</t>
+  </si>
+  <si>
+    <t>yahia</t>
+  </si>
+  <si>
+    <t>Hkati</t>
+  </si>
+  <si>
+    <t>Saïda</t>
+  </si>
+  <si>
+    <t>Abderraouf</t>
+  </si>
+  <si>
+    <t>Kedri</t>
   </si>
 </sst>
 </file>
@@ -523,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -533,6 +809,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,534 +2368,1190 @@
       <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="B50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="6">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="B51" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="6">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>49</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="B52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="6">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>50</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="B53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="6">
+        <v>7</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="B54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="B55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="6">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="B56" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="B57" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="6">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="B58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="6">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="B59" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="6">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="B60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="6">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>58</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="B61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="6">
+        <v>8</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>59</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="B62" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="6">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="B63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="6">
+        <v>6</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="B64" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="6">
+        <v>6</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="B65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="6">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="B66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="6">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="B67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="6">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="B68" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="6">
+        <v>6</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="B69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="6">
+        <v>6</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="B70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="6">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="B71" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="6">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="B72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="6">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="B73" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="6">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="B74" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="6">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="B75" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="6">
+        <v>7</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="B76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="6">
+        <v>7</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="B77" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="6">
+        <v>7</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="B78" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="6">
+        <v>7</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>76</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="B79" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="6">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>77</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="B80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="6">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>78</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="B81" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="6">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>79</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+      <c r="B82" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="6">
+        <v>8</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="B83" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="6">
+        <v>10</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="B84" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="6">
+        <v>6</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="B85" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="6">
+        <v>6</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>83</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="B86" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="6">
+        <v>7</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>84</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="B87" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="6">
+        <v>8</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>85</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="B88" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="6">
+        <v>8</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>86</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="B89" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="6">
+        <v>8</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>87</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="B90" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90" s="6">
+        <v>8</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7450D7-24E9-41DC-9EDD-48797B803EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8082AA-7A7D-4364-8831-BE3B4388AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="242">
   <si>
     <t>ID</t>
   </si>
@@ -747,6 +747,12 @@
   </si>
   <si>
     <t>Kedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 ans</t>
+  </si>
+  <si>
+    <t>10 ans</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,8 +1091,8 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
-        <v>6</v>
+      <c r="E3" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -2377,8 +2383,8 @@
       <c r="D50" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="6">
-        <v>8</v>
+      <c r="E50" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>151</v>
@@ -2406,8 +2412,8 @@
       <c r="D51" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="6">
-        <v>8</v>
+      <c r="E51" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>151</v>
@@ -2435,8 +2441,8 @@
       <c r="D52" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="6">
-        <v>8</v>
+      <c r="E52" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>151</v>
@@ -2464,8 +2470,8 @@
       <c r="D53" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="6">
-        <v>7</v>
+      <c r="E53" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>151</v>
@@ -2493,8 +2499,8 @@
       <c r="D54" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="6">
-        <v>8</v>
+      <c r="E54" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>151</v>
@@ -2522,8 +2528,8 @@
       <c r="D55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="6">
-        <v>8</v>
+      <c r="E55" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>151</v>
@@ -2551,8 +2557,8 @@
       <c r="D56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="6">
-        <v>8</v>
+      <c r="E56" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>151</v>
@@ -2580,8 +2586,8 @@
       <c r="D57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="6">
-        <v>8</v>
+      <c r="E57" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>151</v>
@@ -2609,8 +2615,8 @@
       <c r="D58" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="6">
-        <v>8</v>
+      <c r="E58" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>151</v>
@@ -2638,8 +2644,8 @@
       <c r="D59" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="6">
-        <v>8</v>
+      <c r="E59" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>151</v>
@@ -2667,8 +2673,8 @@
       <c r="D60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="6">
-        <v>8</v>
+      <c r="E60" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>151</v>
@@ -2696,8 +2702,8 @@
       <c r="D61" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="6">
-        <v>8</v>
+      <c r="E61" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>151</v>
@@ -2725,8 +2731,8 @@
       <c r="D62" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="6">
-        <v>8</v>
+      <c r="E62" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>151</v>
@@ -2754,8 +2760,8 @@
       <c r="D63" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="6">
-        <v>6</v>
+      <c r="E63" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>187</v>
@@ -2783,8 +2789,8 @@
       <c r="D64" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="6">
-        <v>6</v>
+      <c r="E64" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>187</v>
@@ -2812,8 +2818,8 @@
       <c r="D65" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="6">
-        <v>8</v>
+      <c r="E65" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>151</v>
@@ -2841,8 +2847,8 @@
       <c r="D66" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="6">
-        <v>8</v>
+      <c r="E66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>151</v>
@@ -2870,8 +2876,8 @@
       <c r="D67" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="6">
-        <v>8</v>
+      <c r="E67" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>151</v>
@@ -2899,8 +2905,8 @@
       <c r="D68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="6">
-        <v>6</v>
+      <c r="E68" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>187</v>
@@ -2928,8 +2934,8 @@
       <c r="D69" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="6">
-        <v>6</v>
+      <c r="E69" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>187</v>
@@ -2957,8 +2963,8 @@
       <c r="D70" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="6">
-        <v>10</v>
+      <c r="E70" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>202</v>
@@ -2986,8 +2992,8 @@
       <c r="D71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="6">
-        <v>8</v>
+      <c r="E71" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>151</v>
@@ -3015,8 +3021,8 @@
       <c r="D72" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E72" s="6">
-        <v>8</v>
+      <c r="E72" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>151</v>
@@ -3044,8 +3050,8 @@
       <c r="D73" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="6">
-        <v>8</v>
+      <c r="E73" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>151</v>
@@ -3073,8 +3079,8 @@
       <c r="D74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="6">
-        <v>8</v>
+      <c r="E74" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>151</v>
@@ -3102,8 +3108,8 @@
       <c r="D75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="6">
-        <v>7</v>
+      <c r="E75" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>212</v>
@@ -3131,8 +3137,8 @@
       <c r="D76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="6">
-        <v>7</v>
+      <c r="E76" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>212</v>
@@ -3160,8 +3166,8 @@
       <c r="D77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="6">
-        <v>7</v>
+      <c r="E77" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>212</v>
@@ -3189,8 +3195,8 @@
       <c r="D78" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="6">
-        <v>7</v>
+      <c r="E78" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>212</v>
@@ -3218,8 +3224,8 @@
       <c r="D79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="6">
-        <v>7</v>
+      <c r="E79" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>212</v>
@@ -3247,8 +3253,8 @@
       <c r="D80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="6">
-        <v>7</v>
+      <c r="E80" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>212</v>
@@ -3276,8 +3282,8 @@
       <c r="D81" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="6">
-        <v>7</v>
+      <c r="E81" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>212</v>
@@ -3305,8 +3311,8 @@
       <c r="D82" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="6">
-        <v>8</v>
+      <c r="E82" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>151</v>
@@ -3334,8 +3340,8 @@
       <c r="D83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="6">
-        <v>10</v>
+      <c r="E83" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>202</v>
@@ -3363,8 +3369,8 @@
       <c r="D84" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="6">
-        <v>6</v>
+      <c r="E84" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>187</v>
@@ -3392,8 +3398,8 @@
       <c r="D85" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="6">
-        <v>6</v>
+      <c r="E85" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>187</v>
@@ -3421,8 +3427,8 @@
       <c r="D86" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E86" s="6">
-        <v>7</v>
+      <c r="E86" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>212</v>
@@ -3450,8 +3456,8 @@
       <c r="D87" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="6">
-        <v>8</v>
+      <c r="E87" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>151</v>
@@ -3479,8 +3485,8 @@
       <c r="D88" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="6">
-        <v>8</v>
+      <c r="E88" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>151</v>
@@ -3508,8 +3514,8 @@
       <c r="D89" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="6">
-        <v>8</v>
+      <c r="E89" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>151</v>
@@ -3537,8 +3543,8 @@
       <c r="D90" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="6">
-        <v>8</v>
+      <c r="E90" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>151</v>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="whoami"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8082AA-7A7D-4364-8831-BE3B4388AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23250" windowHeight="12450" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1713000018" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1713000018" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1713000018" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1713000018"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +66,9 @@
     <t>fille</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>1 primer</t>
   </si>
   <si>
@@ -422,9 +423,6 @@
     <t>islam</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>boukachabia</t>
   </si>
   <si>
@@ -560,6 +558,9 @@
     <t>Berak</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8 ans</t>
+  </si>
+  <si>
     <t>Soltani</t>
   </si>
   <si>
@@ -635,6 +636,9 @@
     <t>Nour el houda</t>
   </si>
   <si>
+    <t>10 ans</t>
+  </si>
+  <si>
     <t>5 ème primaire</t>
   </si>
   <si>
@@ -749,111 +753,204 @@
     <t>Kedri</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8 ans</t>
-  </si>
-  <si>
-    <t>10 ans</t>
+    <t>Amrane</t>
+  </si>
+  <si>
+    <t>Haddad</t>
+  </si>
+  <si>
+    <t>allali</t>
+  </si>
+  <si>
+    <t>waffa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="D\-MMM"/>
+    <numFmt numFmtId="16" formatCode="D-MMM"/>
+    <numFmt numFmtId="165" formatCode="DD/MM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713000018" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1713000018" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1713000018" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1713000018"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1713000018">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1713000018"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1713000018" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -880,7 +977,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -888,155 +985,232 @@
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.45"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.330357" customWidth="1" style="1"/>
+    <col min="2" max="2" width="17.000000" customWidth="1" style="1"/>
+    <col min="3" max="3" width="18.776786" customWidth="1" style="1"/>
+    <col min="4" max="4" width="13.660714" customWidth="1" style="1"/>
+    <col min="6" max="6" width="14.776786" customWidth="1" style="1"/>
+    <col min="7" max="7" width="20.330357" customWidth="1" style="1"/>
+    <col min="8" max="8" width="21.000000" customWidth="1" style="1"/>
+    <col min="9" max="9" width="18.330357" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1078,8 +1252,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1092,1124 +1266,1124 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2219,24 +2393,24 @@
         <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2246,24 +2420,24 @@
         <v>137</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2273,24 +2447,24 @@
         <v>139</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:9">
+      <c r="A47" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2300,51 +2474,51 @@
         <v>142</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2354,10 +2528,10 @@
         <v>145</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>146</v>
@@ -2367,11 +2541,11 @@
         <v>147</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2384,7 +2558,7 @@
         <v>150</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>151</v>
@@ -2399,8 +2573,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:9">
+      <c r="A51" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2413,7 +2587,7 @@
         <v>150</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>151</v>
@@ -2428,21 +2602,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>151</v>
@@ -2457,8 +2631,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2471,7 +2645,7 @@
         <v>164</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>151</v>
@@ -2486,8 +2660,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -2500,7 +2674,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>151</v>
@@ -2515,8 +2689,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2529,7 +2703,7 @@
         <v>150</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>151</v>
@@ -2538,14 +2712,14 @@
         <v>169</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:9">
+      <c r="A56" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2558,7 +2732,7 @@
         <v>150</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>151</v>
@@ -2573,21 +2747,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:9">
+      <c r="A57" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>151</v>
@@ -2602,21 +2776,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:9">
+      <c r="A58" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>151</v>
@@ -2625,27 +2799,27 @@
         <v>169</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:9">
+      <c r="A59" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>151</v>
@@ -2654,27 +2828,27 @@
         <v>169</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:9">
+      <c r="A60" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>151</v>
@@ -2683,27 +2857,27 @@
         <v>157</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:9">
+      <c r="A61" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>151</v>
@@ -2718,21 +2892,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:9">
+      <c r="A62" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>151</v>
@@ -2741,30 +2915,30 @@
         <v>169</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:9">
+      <c r="A63" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>169</v>
@@ -2776,79 +2950,79 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:9">
+      <c r="A64" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:9">
+      <c r="A65" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66" spans="1:9">
+      <c r="A66" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>151</v>
@@ -2857,27 +3031,27 @@
         <v>165</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67" spans="1:9">
+      <c r="A67" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>151</v>
@@ -2892,82 +3066,82 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68" spans="1:9">
+      <c r="A68" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>159</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69" spans="1:9">
+      <c r="A69" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="70" spans="1:9">
+      <c r="A70" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>157</v>
@@ -2979,21 +3153,21 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71" spans="1:9">
+      <c r="A71" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>151</v>
@@ -3002,27 +3176,27 @@
         <v>169</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="72" spans="1:9">
+      <c r="A72" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>151</v>
@@ -3031,27 +3205,27 @@
         <v>159</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73" spans="1:9">
+      <c r="A73" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>151</v>
@@ -3066,21 +3240,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74" spans="1:9">
+      <c r="A74" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>151</v>
@@ -3089,18 +3263,18 @@
         <v>157</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="75" spans="1:9">
+      <c r="A75" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>171</v>
@@ -3109,39 +3283,39 @@
         <v>150</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76" spans="1:9">
+      <c r="A76" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>157</v>
@@ -3153,56 +3327,56 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77" spans="1:9">
+      <c r="A77" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>157</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78" spans="1:9">
+      <c r="A78" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>160</v>
@@ -3211,24 +3385,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79" spans="1:9">
+      <c r="A79" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>152</v>
@@ -3240,24 +3414,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80" spans="1:9">
+      <c r="A80" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>159</v>
@@ -3269,50 +3443,50 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81" spans="1:9">
+      <c r="A81" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>165</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82" spans="1:9">
+      <c r="A82" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>151</v>
@@ -3321,143 +3495,143 @@
         <v>169</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83" spans="1:9">
+      <c r="A83" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>157</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84" spans="1:9">
+      <c r="A84" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85" spans="1:9">
+      <c r="A85" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>159</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86" spans="1:9">
+      <c r="A86" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>157</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87" spans="1:9">
+      <c r="A87" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>151</v>
@@ -3466,27 +3640,27 @@
         <v>169</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88" spans="1:9">
+      <c r="A88" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>151</v>
@@ -3495,27 +3669,27 @@
         <v>165</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89" spans="1:9">
+      <c r="A89" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>151</v>
@@ -3524,82 +3698,130 @@
         <v>165</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90" spans="1:9">
+      <c r="A90" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91" spans="1:9">
+      <c r="A91" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="B91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" s="8" t="n">
+        <v>45324</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="B92" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="8" t="n">
+        <v>45386</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="B93" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="8" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B94" s="2"/>
@@ -3611,8 +3833,8 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95" spans="1:9">
+      <c r="A95" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B95" s="2"/>
@@ -3624,8 +3846,8 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+    <row r="96" spans="1:9">
+      <c r="A96" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B96" s="2"/>
@@ -3637,8 +3859,8 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+    <row r="97" spans="1:9">
+      <c r="A97" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B97" s="2"/>
@@ -3650,8 +3872,8 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+    <row r="98" spans="1:9">
+      <c r="A98" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B98" s="2"/>
@@ -3663,8 +3885,8 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+    <row r="99" spans="1:9">
+      <c r="A99" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B99" s="2"/>
@@ -3676,8 +3898,8 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+    <row r="100" spans="1:9">
+      <c r="A100" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B100" s="2"/>
@@ -3689,8 +3911,8 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+    <row r="101" spans="1:9">
+      <c r="A101" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B101" s="2"/>
@@ -3702,8 +3924,8 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+    <row r="102" spans="1:9">
+      <c r="A102" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B102" s="2"/>
@@ -3715,8 +3937,8 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103" spans="1:9">
+      <c r="A103" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B103" s="2"/>
@@ -3728,8 +3950,8 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    <row r="104" spans="1:9">
+      <c r="A104" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B104" s="2"/>
@@ -3741,8 +3963,8 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+    <row r="105" spans="1:9">
+      <c r="A105" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B105" s="2"/>
@@ -3754,8 +3976,8 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+    <row r="106" spans="1:9">
+      <c r="A106" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B106" s="2"/>
@@ -3767,8 +3989,8 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107" spans="1:9">
+      <c r="A107" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B107" s="2"/>
@@ -3780,8 +4002,8 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108" spans="1:9">
+      <c r="A108" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B108" s="2"/>
@@ -3793,8 +4015,8 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109" spans="1:9">
+      <c r="A109" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B109" s="2"/>
@@ -3806,8 +4028,8 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110" spans="1:9">
+      <c r="A110" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B110" s="2"/>
@@ -3819,8 +4041,8 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111" spans="1:9">
+      <c r="A111" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B111" s="2"/>
@@ -3832,8 +4054,8 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112" spans="1:9">
+      <c r="A112" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B112" s="2"/>
@@ -3845,8 +4067,8 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113" spans="1:9">
+      <c r="A113" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B113" s="2"/>
@@ -3858,8 +4080,8 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+    <row r="114" spans="1:9">
+      <c r="A114" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B114" s="2"/>
@@ -3871,8 +4093,8 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+    <row r="115" spans="1:9">
+      <c r="A115" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B115" s="2"/>
@@ -3884,8 +4106,8 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+    <row r="116" spans="1:9">
+      <c r="A116" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B116" s="2"/>
@@ -3897,8 +4119,8 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117" spans="1:9">
+      <c r="A117" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B117" s="2"/>
@@ -3910,8 +4132,8 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="118" spans="1:9">
+      <c r="A118" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B118" s="2"/>
@@ -3923,8 +4145,8 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="119" spans="1:9">
+      <c r="A119" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B119" s="2"/>
@@ -3936,8 +4158,8 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:9">
+      <c r="A120" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B120" s="2"/>
@@ -3949,8 +4171,8 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:9">
+      <c r="A121" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B121" s="2"/>
@@ -3962,8 +4184,8 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122" spans="1:9">
+      <c r="A122" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B122" s="2"/>
@@ -3975,8 +4197,8 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123" spans="1:9">
+      <c r="A123" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B123" s="2"/>
@@ -3988,8 +4210,8 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124" spans="1:9">
+      <c r="A124" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B124" s="2"/>
@@ -4001,8 +4223,8 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+    <row r="125" spans="1:9">
+      <c r="A125" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B125" s="2"/>
@@ -4014,8 +4236,8 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126" spans="1:9">
+      <c r="A126" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B126" s="2"/>
@@ -4027,8 +4249,8 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127" spans="1:9">
+      <c r="A127" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B127" s="2"/>
@@ -4040,8 +4262,8 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128" spans="1:9">
+      <c r="A128" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B128" s="2"/>
@@ -4053,8 +4275,8 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129" spans="1:9">
+      <c r="A129" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B129" s="2"/>
@@ -4067,33 +4289,106 @@
       <c r="I129" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713000018" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713000018" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.45"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713000018" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713000018" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.45"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1713000018" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1713000018" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713000018" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFA590-7DD5-4CD8-8177-0400D2D2A2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380621B-83D8-41AF-8F2A-91E5706E4EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="d\-mmm"/>
-    <numFmt numFmtId="173" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -678,19 +678,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,70 +992,70 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1063,28 +1063,28 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1092,26 +1092,26 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1119,28 +1119,28 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1148,26 +1148,26 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1175,51 +1175,51 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1227,28 +1227,28 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1256,26 +1256,26 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1283,26 +1283,26 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3">
         <v>6</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1310,28 +1310,28 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1339,28 +1339,28 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1368,28 +1368,28 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1397,28 +1397,28 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1426,28 +1426,28 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1455,26 +1455,26 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3">
         <v>7</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1482,26 +1482,26 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1509,26 +1509,26 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3">
         <v>7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1536,26 +1536,26 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1563,26 +1563,26 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="4">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1590,26 +1590,26 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>9</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1617,26 +1617,26 @@
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1644,26 +1644,26 @@
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3">
         <v>9</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1671,26 +1671,26 @@
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1698,26 +1698,26 @@
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1725,26 +1725,26 @@
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>6</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1752,26 +1752,26 @@
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="4">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1779,26 +1779,26 @@
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>6</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1806,26 +1806,26 @@
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>7</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1833,28 +1833,28 @@
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="4">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1862,28 +1862,28 @@
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="3">
         <v>9</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>4</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1891,28 +1891,28 @@
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="4">
-        <v>8</v>
-      </c>
-      <c r="F34" s="4">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1920,26 +1920,26 @@
       <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>6</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1947,26 +1947,26 @@
       <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
+      <c r="D36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1974,26 +1974,26 @@
       <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8</v>
-      </c>
-      <c r="F37" s="4">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2001,26 +2001,26 @@
       <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>6</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2028,26 +2028,26 @@
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="3">
         <v>7</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>2</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2055,26 +2055,26 @@
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>6</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2082,26 +2082,26 @@
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3">
         <v>6</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2109,26 +2109,26 @@
       <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="3">
         <v>7</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>2</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2136,28 +2136,28 @@
       <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="3">
         <v>6</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2165,26 +2165,26 @@
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3">
         <v>7</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>2</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2192,26 +2192,26 @@
       <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="4">
-        <v>8</v>
-      </c>
-      <c r="F45" s="4">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="E45" s="3">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2219,26 +2219,26 @@
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="4">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4">
-        <v>3</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="E46" s="3">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2246,26 +2246,26 @@
       <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="3">
         <v>7</v>
       </c>
-      <c r="F47" s="4">
-        <v>3</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
+      <c r="F47" s="3">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2273,28 +2273,28 @@
       <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="4">
-        <v>8</v>
-      </c>
-      <c r="F48" s="4">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="D48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2302,26 +2302,26 @@
       <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="3">
         <v>6</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2329,28 +2329,28 @@
       <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="4">
-        <v>8</v>
-      </c>
-      <c r="F50" s="4">
-        <v>3</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="3">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2358,28 +2358,28 @@
       <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="4">
-        <v>8</v>
-      </c>
-      <c r="F51" s="4">
-        <v>3</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="3">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2387,28 +2387,28 @@
       <c r="A52" s="2">
         <v>49</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="4">
-        <v>8</v>
-      </c>
-      <c r="F52" s="4">
-        <v>3</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="D52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2416,28 +2416,28 @@
       <c r="A53" s="2">
         <v>50</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>7</v>
       </c>
-      <c r="F53" s="4">
-        <v>3</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="3">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2445,28 +2445,28 @@
       <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="4">
-        <v>8</v>
-      </c>
-      <c r="F54" s="4">
-        <v>3</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2474,28 +2474,28 @@
       <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="4">
-        <v>8</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="D55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="3">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2503,28 +2503,28 @@
       <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="4">
-        <v>8</v>
-      </c>
-      <c r="F56" s="4">
-        <v>3</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="D56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="3">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2532,28 +2532,28 @@
       <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="4">
-        <v>8</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="D57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2561,28 +2561,28 @@
       <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="4">
-        <v>8</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="E58" s="3">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2590,28 +2590,28 @@
       <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="4">
-        <v>8</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="E59" s="3">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2619,28 +2619,28 @@
       <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="4">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4">
-        <v>3</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="D60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2648,28 +2648,28 @@
       <c r="A61" s="2">
         <v>58</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="4">
-        <v>8</v>
-      </c>
-      <c r="F61" s="4">
-        <v>3</v>
-      </c>
-      <c r="G61" s="5" t="s">
+      <c r="D61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2677,28 +2677,28 @@
       <c r="A62" s="2">
         <v>59</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="4">
-        <v>8</v>
-      </c>
-      <c r="F62" s="4">
-        <v>3</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="E62" s="3">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2706,28 +2706,28 @@
       <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>6</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2735,28 +2735,28 @@
       <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>6</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2764,28 +2764,28 @@
       <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="4">
-        <v>8</v>
-      </c>
-      <c r="F65" s="4">
-        <v>3</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="D65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2793,28 +2793,28 @@
       <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="4">
-        <v>8</v>
-      </c>
-      <c r="F66" s="4">
-        <v>3</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="D66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2822,28 +2822,28 @@
       <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="4">
-        <v>8</v>
-      </c>
-      <c r="F67" s="4">
-        <v>3</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="D67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2851,28 +2851,28 @@
       <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="3">
         <v>6</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2880,28 +2880,28 @@
       <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="3">
         <v>6</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>1</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2909,28 +2909,28 @@
       <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>10</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>5</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2938,28 +2938,28 @@
       <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="4">
-        <v>8</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="D71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="3">
+        <v>8</v>
+      </c>
+      <c r="F71" s="3">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2967,28 +2967,28 @@
       <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="4">
-        <v>8</v>
-      </c>
-      <c r="F72" s="4">
-        <v>3</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="D72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2996,28 +2996,28 @@
       <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="4">
-        <v>8</v>
-      </c>
-      <c r="F73" s="4">
-        <v>3</v>
-      </c>
-      <c r="G73" s="5" t="s">
+      <c r="D73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3025,28 +3025,28 @@
       <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="4">
-        <v>8</v>
-      </c>
-      <c r="F74" s="4">
-        <v>3</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="D74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="3">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3054,28 +3054,28 @@
       <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="3">
         <v>7</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>2</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3083,28 +3083,28 @@
       <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="D76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="3">
         <v>7</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>2</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3112,28 +3112,28 @@
       <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="3">
         <v>7</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>2</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3141,28 +3141,28 @@
       <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>7</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>2</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3170,28 +3170,28 @@
       <c r="A79" s="2">
         <v>76</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>7</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>2</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3199,28 +3199,28 @@
       <c r="A80" s="2">
         <v>77</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>7</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>2</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3228,28 +3228,28 @@
       <c r="A81" s="2">
         <v>78</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>7</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>2</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3257,28 +3257,28 @@
       <c r="A82" s="2">
         <v>79</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="4">
-        <v>8</v>
-      </c>
-      <c r="F82" s="4">
-        <v>3</v>
-      </c>
-      <c r="G82" s="4" t="s">
+      <c r="E82" s="3">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3286,28 +3286,28 @@
       <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>10</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>5</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3315,28 +3315,28 @@
       <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>6</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>1</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3344,28 +3344,28 @@
       <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="3">
         <v>6</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>1</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3373,28 +3373,28 @@
       <c r="A86" s="2">
         <v>83</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="D86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="3">
         <v>7</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>2</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3402,28 +3402,28 @@
       <c r="A87" s="2">
         <v>84</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="4">
-        <v>8</v>
-      </c>
-      <c r="F87" s="4">
-        <v>3</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="D87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3431,28 +3431,28 @@
       <c r="A88" s="2">
         <v>85</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E88" s="4">
-        <v>8</v>
-      </c>
-      <c r="F88" s="4">
-        <v>3</v>
-      </c>
-      <c r="G88" s="4" t="s">
+      <c r="D88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3">
+        <v>3</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3460,28 +3460,28 @@
       <c r="A89" s="2">
         <v>86</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="4">
-        <v>8</v>
-      </c>
-      <c r="F89" s="4">
-        <v>3</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="D89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3489,28 +3489,28 @@
       <c r="A90" s="2">
         <v>87</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E90" s="4">
-        <v>8</v>
-      </c>
-      <c r="F90" s="4">
-        <v>3</v>
-      </c>
-      <c r="G90" s="4" t="s">
+      <c r="E90" s="3">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3">
+        <v>3</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3518,28 +3518,28 @@
       <c r="A91" s="2">
         <v>88</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="3">
         <v>9</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>4</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3547,28 +3547,28 @@
       <c r="A92" s="2">
         <v>89</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="3">
         <v>6</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>1</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3576,28 +3576,28 @@
       <c r="A93" s="2">
         <v>90</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E93" s="4">
-        <v>8</v>
-      </c>
-      <c r="F93" s="4">
-        <v>3</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="E93" s="3">
+        <v>8</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="3" t="s">
         <v>123</v>
       </c>
     </row>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="whoami"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDCF46-75BB-4EE0-B862-D7BB5D52B7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23259" windowHeight="12453" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1713545937" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -669,92 +674,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="D\-MMM"/>
-    <numFmt numFmtId="165" formatCode="DD/MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="d\-mmm"/>
+    <numFmt numFmtId="173" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1713545937" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1713545937" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1713545937" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -769,39 +716,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937"/>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -809,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -825,8 +744,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1713545937" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -1091,26 +1017,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A89" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.330357" customWidth="1" style="0"/>
-    <col min="2" max="2" width="17.000000" customWidth="1" style="0"/>
-    <col min="3" max="3" width="18.776786" customWidth="1" style="0"/>
-    <col min="4" max="4" width="13.660714" customWidth="1" style="0"/>
-    <col min="6" max="6" width="14.776786" customWidth="1" style="0"/>
-    <col min="7" max="7" width="20.330357" customWidth="1" style="0"/>
-    <col min="8" max="8" width="21.000000" customWidth="1" style="0"/>
-    <col min="9" max="9" width="18.330357" customWidth="1" style="0"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1152,8 +1078,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1168,7 +1094,7 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1181,8 +1107,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1194,10 +1120,10 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1210,8 +1136,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1221,10 +1147,10 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1237,8 +1163,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1250,10 +1176,10 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1266,8 +1192,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -1277,10 +1203,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1293,8 +1219,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -1304,10 +1230,10 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1316,8 +1242,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1329,10 +1255,10 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1345,8 +1271,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1358,10 +1284,10 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1374,8 +1300,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
@@ -1385,10 +1311,10 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1401,8 +1327,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
@@ -1412,10 +1338,10 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1428,8 +1354,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1441,10 +1367,10 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1457,8 +1383,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1470,10 +1396,10 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>9</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1486,8 +1412,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1499,10 +1425,10 @@
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1515,8 +1441,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1528,10 +1454,10 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1544,8 +1470,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1557,10 +1483,10 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>6</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1573,8 +1499,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1586,10 +1512,10 @@
       <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
       <c r="G18" s="5"/>
@@ -1600,8 +1526,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1613,10 +1539,10 @@
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
@@ -1627,8 +1553,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1640,10 +1566,10 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
       <c r="G20" s="2"/>
@@ -1654,8 +1580,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1667,10 +1593,10 @@
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1681,8 +1607,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1694,10 +1620,10 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2"/>
@@ -1708,8 +1634,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1721,10 +1647,10 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="2"/>
@@ -1735,8 +1661,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1748,10 +1674,10 @@
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
@@ -1762,8 +1688,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1775,10 +1701,10 @@
       <c r="D25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>9</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
       <c r="G25" s="2"/>
@@ -1789,8 +1715,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1802,10 +1728,10 @@
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2"/>
@@ -1816,8 +1742,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1829,10 +1755,10 @@
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>7</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="G27" s="2"/>
@@ -1843,8 +1769,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1856,10 +1782,10 @@
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
@@ -1870,8 +1796,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1883,10 +1809,10 @@
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
         <v>3</v>
       </c>
       <c r="G29" s="2"/>
@@ -1897,8 +1823,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1910,10 +1836,10 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>6</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2"/>
@@ -1924,8 +1850,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1937,10 +1863,10 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="G31" s="2"/>
@@ -1951,8 +1877,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1964,10 +1890,10 @@
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1980,8 +1906,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1993,10 +1919,10 @@
       <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>9</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2009,8 +1935,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2022,10 +1948,10 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
         <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2038,8 +1964,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2051,10 +1977,10 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>6</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="2"/>
@@ -2065,8 +1991,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2078,10 +2004,10 @@
       <c r="D36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2" t="n">
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
         <v>3</v>
       </c>
       <c r="G36" s="2"/>
@@ -2092,8 +2018,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2105,10 +2031,10 @@
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
         <v>3</v>
       </c>
       <c r="G37" s="2"/>
@@ -2119,8 +2045,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2132,10 +2058,10 @@
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>6</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
@@ -2146,8 +2072,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2159,10 +2085,10 @@
       <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="2"/>
@@ -2173,8 +2099,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2186,10 +2112,10 @@
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="2"/>
@@ -2200,8 +2126,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2213,10 +2139,10 @@
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>6</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="2"/>
@@ -2227,8 +2153,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2240,10 +2166,10 @@
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>7</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2"/>
@@ -2254,8 +2180,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2267,10 +2193,10 @@
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>6</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2283,8 +2209,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2296,10 +2222,10 @@
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>7</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2"/>
@@ -2310,8 +2236,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2323,10 +2249,10 @@
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2" t="n">
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2"/>
@@ -2337,8 +2263,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2350,10 +2276,10 @@
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2">
         <v>3</v>
       </c>
       <c r="G46" s="2"/>
@@ -2364,8 +2290,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2377,10 +2303,10 @@
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2">
         <v>7</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
@@ -2391,8 +2317,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2404,10 +2330,10 @@
       <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2420,8 +2346,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2433,10 +2359,10 @@
       <c r="D49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
@@ -2447,8 +2373,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2460,10 +2386,10 @@
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="E50" s="2">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2">
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -2476,8 +2402,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2489,10 +2415,10 @@
       <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -2505,8 +2431,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2518,10 +2444,10 @@
       <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -2534,8 +2460,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2547,10 +2473,10 @@
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2">
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2">
         <v>3</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -2563,8 +2489,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2576,10 +2502,10 @@
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
         <v>3</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -2592,8 +2518,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2605,10 +2531,10 @@
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -2621,8 +2547,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2634,10 +2560,10 @@
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" s="2" t="n">
+      <c r="E56" s="2">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2">
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -2650,8 +2576,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2663,10 +2589,10 @@
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="n">
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2">
         <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -2679,8 +2605,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2692,10 +2618,10 @@
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="E58" s="2">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -2708,8 +2634,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2721,10 +2647,10 @@
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="E59" s="2">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2">
         <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -2737,8 +2663,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2750,10 +2676,10 @@
       <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" s="2" t="n">
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2">
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -2766,8 +2692,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2779,10 +2705,10 @@
       <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F61" s="2" t="n">
+      <c r="E61" s="2">
+        <v>8</v>
+      </c>
+      <c r="F61" s="2">
         <v>3</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -2795,8 +2721,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2808,10 +2734,10 @@
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="E62" s="2">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2">
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -2824,8 +2750,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2837,10 +2763,10 @@
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2">
         <v>6</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -2853,8 +2779,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2866,10 +2792,10 @@
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2">
         <v>6</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -2882,8 +2808,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2895,10 +2821,10 @@
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="n">
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2">
         <v>3</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -2911,8 +2837,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2924,10 +2850,10 @@
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F66" s="2" t="n">
+      <c r="E66" s="2">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -2940,8 +2866,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2953,10 +2879,10 @@
       <c r="D67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F67" s="2" t="n">
+      <c r="E67" s="2">
+        <v>8</v>
+      </c>
+      <c r="F67" s="2">
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -2969,8 +2895,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2982,10 +2908,10 @@
       <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2">
         <v>6</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -2998,8 +2924,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3011,10 +2937,10 @@
       <c r="D69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2">
         <v>6</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3027,8 +2953,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3040,10 +2966,10 @@
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2">
         <v>10</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2">
         <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -3056,8 +2982,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3069,10 +2995,10 @@
       <c r="D71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F71" s="2" t="n">
+      <c r="E71" s="2">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2">
         <v>3</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -3085,8 +3011,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3098,10 +3024,10 @@
       <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="E72" s="2">
+        <v>8</v>
+      </c>
+      <c r="F72" s="2">
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -3114,8 +3040,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3127,10 +3053,10 @@
       <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2" t="n">
+      <c r="E73" s="2">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2">
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -3143,8 +3069,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3156,10 +3082,10 @@
       <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" s="2" t="n">
+      <c r="E74" s="2">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -3172,8 +3098,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3185,10 +3111,10 @@
       <c r="D75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2">
         <v>7</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="2">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3201,8 +3127,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3214,10 +3140,10 @@
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2">
         <v>7</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="2">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -3230,8 +3156,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3243,10 +3169,10 @@
       <c r="D77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2">
         <v>7</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="2">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -3259,8 +3185,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3272,10 +3198,10 @@
       <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2">
         <v>7</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="2">
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -3288,8 +3214,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3301,10 +3227,10 @@
       <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2">
         <v>7</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="2">
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -3317,8 +3243,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3330,10 +3256,10 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2">
         <v>7</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="2">
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -3346,8 +3272,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3359,10 +3285,10 @@
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2">
         <v>7</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="2">
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -3375,8 +3301,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3388,10 +3314,10 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" s="2" t="n">
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3404,8 +3330,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3417,10 +3343,10 @@
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2">
         <v>10</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="2">
         <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -3433,8 +3359,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3446,10 +3372,10 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -3462,8 +3388,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3475,10 +3401,10 @@
       <c r="D85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2">
         <v>6</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -3491,8 +3417,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3504,10 +3430,10 @@
       <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2">
         <v>7</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="2">
         <v>2</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -3520,8 +3446,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3533,10 +3459,10 @@
       <c r="D87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F87" s="2" t="n">
+      <c r="E87" s="2">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2">
         <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -3549,8 +3475,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3562,10 +3488,10 @@
       <c r="D88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F88" s="2" t="n">
+      <c r="E88" s="2">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2">
         <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3578,8 +3504,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3591,10 +3517,10 @@
       <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F89" s="2" t="n">
+      <c r="E89" s="2">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2">
         <v>3</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -3607,8 +3533,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3620,10 +3546,10 @@
       <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F90" s="2" t="n">
+      <c r="E90" s="2">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2">
         <v>3</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -3636,8 +3562,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3649,10 +3575,10 @@
       <c r="D91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2">
         <v>9</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="2">
         <v>4</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3665,8 +3591,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3678,10 +3604,10 @@
       <c r="D92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2">
         <v>6</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
@@ -3694,8 +3620,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3707,10 +3633,10 @@
       <c r="D93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F93" s="2" t="n">
+      <c r="E93" s="2">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2">
         <v>3</v>
       </c>
       <c r="G93" s="4" t="s">
@@ -3723,269 +3649,269 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="1" t="n">
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="2">
         <v>6</v>
       </c>
-      <c r="F94" s="1" t="n">
+      <c r="F94" s="2">
         <v>1</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="1" t="n">
+      <c r="E95" s="2">
         <v>7</v>
       </c>
-      <c r="F95" s="1" t="n">
+      <c r="F95" s="2">
         <v>2</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="2">
+        <v>8</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="1" t="n">
+      <c r="E97" s="2">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="n">
+      <c r="F97" s="2">
         <v>4</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1" t="n">
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="2">
         <v>7</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="F98" s="2">
         <v>2</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="2">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2">
+        <v>3</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="1" t="n">
+      <c r="E100" s="2">
         <v>7</v>
       </c>
-      <c r="F100" s="1" t="n">
+      <c r="F100" s="2">
         <v>2</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1" t="n">
+      <c r="D101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="2">
         <v>6</v>
       </c>
-      <c r="F101" s="1" t="n">
+      <c r="F101" s="2">
         <v>1</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="1" t="n">
+      <c r="E102" s="2">
         <v>7</v>
       </c>
-      <c r="F102" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="F102" s="2">
+        <v>3</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>100</v>
       </c>
       <c r="B103" s="1"/>
@@ -3997,8 +3923,8 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>101</v>
       </c>
       <c r="B104" s="1"/>
@@ -4010,8 +3936,8 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>102</v>
       </c>
       <c r="B105" s="1"/>
@@ -4023,8 +3949,8 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>103</v>
       </c>
       <c r="B106" s="1"/>
@@ -4036,8 +3962,8 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>104</v>
       </c>
       <c r="B107" s="1"/>
@@ -4049,8 +3975,8 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>105</v>
       </c>
       <c r="B108" s="1"/>
@@ -4062,8 +3988,8 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>106</v>
       </c>
       <c r="B109" s="1"/>
@@ -4075,8 +4001,8 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>107</v>
       </c>
       <c r="B110" s="1"/>
@@ -4088,8 +4014,8 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>108</v>
       </c>
       <c r="B111" s="1"/>
@@ -4101,8 +4027,8 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>109</v>
       </c>
       <c r="B112" s="1"/>
@@ -4114,8 +4040,8 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>110</v>
       </c>
       <c r="B113" s="1"/>
@@ -4127,8 +4053,8 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>111</v>
       </c>
       <c r="B114" s="1"/>
@@ -4140,8 +4066,8 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>112</v>
       </c>
       <c r="B115" s="1"/>
@@ -4153,8 +4079,8 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>113</v>
       </c>
       <c r="B116" s="1"/>
@@ -4166,8 +4092,8 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>114</v>
       </c>
       <c r="B117" s="1"/>
@@ -4179,8 +4105,8 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>115</v>
       </c>
       <c r="B118" s="1"/>
@@ -4192,8 +4118,8 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>116</v>
       </c>
       <c r="B119" s="1"/>
@@ -4205,8 +4131,8 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>117</v>
       </c>
       <c r="B120" s="1"/>
@@ -4218,8 +4144,8 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>118</v>
       </c>
       <c r="B121" s="1"/>
@@ -4231,8 +4157,8 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>119</v>
       </c>
       <c r="B122" s="1"/>
@@ -4244,8 +4170,8 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>120</v>
       </c>
       <c r="B123" s="1"/>
@@ -4257,8 +4183,8 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>121</v>
       </c>
       <c r="B124" s="1"/>
@@ -4270,8 +4196,8 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>122</v>
       </c>
       <c r="B125" s="1"/>
@@ -4283,8 +4209,8 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>123</v>
       </c>
       <c r="B126" s="1"/>
@@ -4296,8 +4222,8 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>124</v>
       </c>
       <c r="B127" s="1"/>
@@ -4309,8 +4235,8 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>125</v>
       </c>
       <c r="B128" s="1"/>
@@ -4322,8 +4248,8 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>126</v>
       </c>
       <c r="B129" s="1"/>
@@ -4336,23 +4262,8 @@
       <c r="I129" s="1"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4365,32 +4276,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4403,32 +4297,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,384 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="whoami"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23259" windowHeight="12453" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1713545937" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1713545937" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1713545937" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1713545937"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="213">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="276">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Niveau_scolaire</t>
-  </si>
-  <si>
-    <t>Classement_fraternel</t>
-  </si>
-  <si>
-    <t>Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t>Classe</t>
-  </si>
-  <si>
-    <t>Ordre/Nb total</t>
-  </si>
-  <si>
-    <t>kadour</t>
-  </si>
-  <si>
-    <t>merieme</t>
-  </si>
-  <si>
-    <t>Fille</t>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau_scolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement_fraternel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordre/Nb total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merieme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fille</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(4/4)</t>
-  </si>
-  <si>
-    <t>image 1</t>
-  </si>
-  <si>
-    <t>Poupée</t>
-  </si>
-  <si>
-    <t>abdaoui</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>Garçon</t>
-  </si>
-  <si>
-    <t>(3/3)</t>
-  </si>
-  <si>
-    <t>image 2</t>
-  </si>
-  <si>
-    <t>Voiture</t>
-  </si>
-  <si>
-    <t>chdadi</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>gafar</t>
-  </si>
-  <si>
-    <t>anas</t>
-  </si>
-  <si>
-    <t>Ballon</t>
-  </si>
-  <si>
-    <t>moiz</t>
-  </si>
-  <si>
-    <t>(2/2)</t>
-  </si>
-  <si>
-    <t>logein</t>
-  </si>
-  <si>
-    <t>(1/1)</t>
-  </si>
-  <si>
-    <t>boulifa</t>
-  </si>
-  <si>
-    <t>khalil</t>
-  </si>
-  <si>
-    <t>(3/4)</t>
+    <t xml:space="preserve">(4/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdaoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garçon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chdadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boulifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/4)</t>
   </si>
   <si>
     <t xml:space="preserve">mezrgich </t>
   </si>
   <si>
-    <t>merime</t>
-  </si>
-  <si>
-    <t>iyad</t>
-  </si>
-  <si>
-    <t>islem</t>
-  </si>
-  <si>
-    <t>derwich</t>
-  </si>
-  <si>
-    <t>(4/5)</t>
-  </si>
-  <si>
-    <t>Bonbon</t>
-  </si>
-  <si>
-    <t>nadji</t>
-  </si>
-  <si>
-    <t>(3/5)</t>
-  </si>
-  <si>
-    <t>wassim</t>
-  </si>
-  <si>
-    <t>(5/5)</t>
-  </si>
-  <si>
-    <t>amouri</t>
-  </si>
-  <si>
-    <t>fares</t>
-  </si>
-  <si>
-    <t>(1/2)</t>
-  </si>
-  <si>
-    <t>aya</t>
-  </si>
-  <si>
-    <t>Mehdi</t>
-  </si>
-  <si>
-    <t>Abdel hak</t>
-  </si>
-  <si>
-    <t>Bounamous</t>
+    <t xml:space="preserve">merime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wassim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdel hak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounamous</t>
   </si>
   <si>
     <t xml:space="preserve">Marouane </t>
   </si>
   <si>
-    <t>abdel rahmane</t>
-  </si>
-  <si>
-    <t>Bougouffa</t>
-  </si>
-  <si>
-    <t>nadjemeddine</t>
-  </si>
-  <si>
-    <t>Brahimi</t>
-  </si>
-  <si>
-    <t>Lina</t>
-  </si>
-  <si>
-    <t>image 3</t>
+    <t xml:space="preserve">abdel rahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bougouffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadjemeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 3</t>
   </si>
   <si>
     <t xml:space="preserve">Animal </t>
   </si>
   <si>
-    <t>Ayada</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Absi</t>
-  </si>
-  <si>
-    <t>Mourad</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Cherafa</t>
-  </si>
-  <si>
-    <t>Marame</t>
+    <t xml:space="preserve">Ayada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mourad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marame</t>
   </si>
   <si>
     <t xml:space="preserve">Cherafa </t>
   </si>
   <si>
-    <t>Louay</t>
-  </si>
-  <si>
-    <t>Ameur Soualem</t>
-  </si>
-  <si>
-    <t>Khouloud</t>
-  </si>
-  <si>
-    <t>Berezag</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Allaoua</t>
-  </si>
-  <si>
-    <t>Amina</t>
-  </si>
-  <si>
-    <t>chericheri</t>
-  </si>
-  <si>
-    <t>Malek</t>
-  </si>
-  <si>
-    <t>Bouzid</t>
-  </si>
-  <si>
-    <t>Image 1</t>
-  </si>
-  <si>
-    <t>Youssef</t>
-  </si>
-  <si>
-    <t>Image 3</t>
-  </si>
-  <si>
-    <t>Abbassi</t>
-  </si>
-  <si>
-    <t>(2/3)</t>
-  </si>
-  <si>
-    <t>chettab</t>
-  </si>
-  <si>
-    <t>serine</t>
-  </si>
-  <si>
-    <t>hachmi</t>
-  </si>
-  <si>
-    <t>salah</t>
+    <t xml:space="preserve">Louay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameur Soualem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khouloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berezag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allaoua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chericheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouzid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chettab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hachmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salah</t>
   </si>
   <si>
     <t xml:space="preserve">soualhi </t>
   </si>
   <si>
-    <t>mouhanad</t>
-  </si>
-  <si>
-    <t>malek</t>
-  </si>
-  <si>
-    <t>amrousi</t>
-  </si>
-  <si>
-    <t>diaeddine</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>boustani</t>
-  </si>
-  <si>
-    <t>hamza</t>
+    <t xml:space="preserve">mouhanad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrousi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boustani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamza</t>
   </si>
   <si>
     <t xml:space="preserve">boustani </t>
   </si>
   <si>
-    <t>farah</t>
-  </si>
-  <si>
-    <t>merzoug</t>
-  </si>
-  <si>
-    <t>aymen</t>
-  </si>
-  <si>
-    <t>zenati</t>
-  </si>
-  <si>
-    <t>islam</t>
-  </si>
-  <si>
-    <t>boukachabia</t>
-  </si>
-  <si>
-    <t>chamseddine</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>sayfi</t>
-  </si>
-  <si>
-    <t>nour</t>
-  </si>
-  <si>
-    <t>rahani</t>
-  </si>
-  <si>
-    <t>hana</t>
-  </si>
-  <si>
-    <t>boudjmaa</t>
-  </si>
-  <si>
-    <t>nazim</t>
-  </si>
-  <si>
-    <t>djaballah</t>
-  </si>
-  <si>
-    <t>behlouli</t>
-  </si>
-  <si>
-    <t>Malik</t>
-  </si>
-  <si>
-    <t>Image2</t>
-  </si>
-  <si>
-    <t>Chofa</t>
-  </si>
-  <si>
-    <t>Sajed</t>
-  </si>
-  <si>
-    <t>(1/3)</t>
+    <t xml:space="preserve">farah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merzoug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aymen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boukachabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamseddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boudjmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nazim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djaballah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behlouli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/3)</t>
   </si>
   <si>
     <t xml:space="preserve">Image 1 </t>
@@ -387,491 +384,642 @@
     <t xml:space="preserve">Atrouse </t>
   </si>
   <si>
-    <t>Firas</t>
+    <t xml:space="preserve">Firas</t>
   </si>
   <si>
     <t xml:space="preserve">Ziyadi </t>
   </si>
   <si>
-    <t>Image 2</t>
-  </si>
-  <si>
-    <t>Khlefi</t>
-  </si>
-  <si>
-    <t>Jana</t>
-  </si>
-  <si>
-    <t>Nouwara</t>
-  </si>
-  <si>
-    <t>Mohamed Yacine</t>
-  </si>
-  <si>
-    <t>Nouri</t>
-  </si>
-  <si>
-    <t>Adem</t>
-  </si>
-  <si>
-    <t>Boumanjel</t>
-  </si>
-  <si>
-    <t>Haitem</t>
-  </si>
-  <si>
-    <t>Berak</t>
-  </si>
-  <si>
-    <t>Soltani</t>
-  </si>
-  <si>
-    <t>Ratile sounedes</t>
-  </si>
-  <si>
-    <t>Chaweche</t>
-  </si>
-  <si>
-    <t>Rime</t>
-  </si>
-  <si>
-    <t>Boudchicha</t>
-  </si>
-  <si>
-    <t>Anes</t>
-  </si>
-  <si>
-    <t>Aitikhlef</t>
-  </si>
-  <si>
-    <t>Arilase</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Rezaki</t>
-  </si>
-  <si>
-    <t>Taleb</t>
-  </si>
-  <si>
-    <t>Assil</t>
-  </si>
-  <si>
-    <t>Razouk</t>
-  </si>
-  <si>
-    <t>Kabise</t>
-  </si>
-  <si>
-    <t>Bouakal</t>
-  </si>
-  <si>
-    <t>Racim</t>
-  </si>
-  <si>
-    <t>Bakouche</t>
-  </si>
-  <si>
-    <t>Zinedinne</t>
-  </si>
-  <si>
-    <t>Satouh</t>
+    <t xml:space="preserve">Image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khlefi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouwara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Yacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boumanjel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haitem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratile sounedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaweche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boudchicha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aitikhlef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arilase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taleb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razouk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouakal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakouche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinedinne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satouh</t>
   </si>
   <si>
     <t xml:space="preserve">Bayrem  </t>
   </si>
   <si>
-    <t>Akrem</t>
-  </si>
-  <si>
-    <t>Bouajada</t>
-  </si>
-  <si>
-    <t>Nour el houda</t>
-  </si>
-  <si>
-    <t>khchman</t>
-  </si>
-  <si>
-    <t>Lokmane</t>
-  </si>
-  <si>
-    <t>Bourasase</t>
-  </si>
-  <si>
-    <t>Fadi</t>
-  </si>
-  <si>
-    <t>Boudakhana</t>
-  </si>
-  <si>
-    <t>Harone</t>
-  </si>
-  <si>
-    <t>boallse</t>
-  </si>
-  <si>
-    <t>Abd el kader</t>
-  </si>
-  <si>
-    <t>Medrouae</t>
-  </si>
-  <si>
-    <t>Bouhafer</t>
-  </si>
-  <si>
-    <t>Abd Rhime</t>
-  </si>
-  <si>
-    <t>Lkhlefi</t>
-  </si>
-  <si>
-    <t>Idrisse</t>
-  </si>
-  <si>
-    <t>Lefoul</t>
-  </si>
-  <si>
-    <t>Rimase</t>
-  </si>
-  <si>
-    <t>Atoui</t>
-  </si>
-  <si>
-    <t>Kawthar</t>
-  </si>
-  <si>
-    <t>Bouassida</t>
-  </si>
-  <si>
-    <t>Manar</t>
-  </si>
-  <si>
-    <t>Boziyou</t>
-  </si>
-  <si>
-    <t>Hana</t>
-  </si>
-  <si>
-    <t>Faydi</t>
-  </si>
-  <si>
-    <t>Khawla</t>
-  </si>
-  <si>
-    <t>Harwadi</t>
-  </si>
-  <si>
-    <t>Kenza</t>
-  </si>
-  <si>
-    <t>Soltan</t>
-  </si>
-  <si>
-    <t>Bouabssa</t>
-  </si>
-  <si>
-    <t>Nidal</t>
-  </si>
-  <si>
-    <t>Larked</t>
-  </si>
-  <si>
-    <t>Mohamed Said</t>
-  </si>
-  <si>
-    <t>Benamara</t>
-  </si>
-  <si>
-    <t>yahia</t>
-  </si>
-  <si>
-    <t>Hkati</t>
-  </si>
-  <si>
-    <t>Saïda</t>
-  </si>
-  <si>
-    <t>Abderraouf</t>
-  </si>
-  <si>
-    <t>Kedri</t>
-  </si>
-  <si>
-    <t>Amrane</t>
-  </si>
-  <si>
-    <t>Haddad</t>
-  </si>
-  <si>
-    <t>allali</t>
-  </si>
-  <si>
-    <t>waffa</t>
-  </si>
-  <si>
-    <t>bencalem</t>
-  </si>
-  <si>
-    <t>yacine</t>
-  </si>
-  <si>
-    <t>Belkacem</t>
-  </si>
-  <si>
-    <t>amina</t>
-  </si>
-  <si>
-    <t>Ait Slimani</t>
-  </si>
-  <si>
-    <t>soufiane</t>
+    <t xml:space="preserve">Akrem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouajada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nour el houda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khchman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourasase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boudakhana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boallse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abd el kader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medrouae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouhafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abd Rhime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lkhlefi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idrisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lefoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rimase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawthar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouassida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boziyou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faydi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khawla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harwadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouabssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nidal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benamara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hkati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saïda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abderraouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bencalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belkacem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ait Slimani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soufiane</t>
   </si>
   <si>
     <t xml:space="preserve">Fille </t>
   </si>
   <si>
-    <t>Touati</t>
-  </si>
-  <si>
-    <t>Karim</t>
-  </si>
-  <si>
-    <t>Bouziane</t>
-  </si>
-  <si>
-    <t>yassir</t>
-  </si>
-  <si>
-    <t>Benyahya</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>Cherif</t>
-  </si>
-  <si>
-    <t>Salim</t>
-  </si>
-  <si>
-    <t>Mansouri</t>
-  </si>
-  <si>
-    <t>Maya</t>
+    <t xml:space="preserve">Touati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouziane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yassir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benyahya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seraidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> garcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mnadjlia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abd eraeouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hamdi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taki eddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chouaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ballom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chirak </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chouater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fille</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poupee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hamadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> achref</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bonbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rahmouni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> houssem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guechi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hemame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boudir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ramzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kouadria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ishak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">djafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malek </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gasmi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poupee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> belaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maroua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> djeloul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> djendoubi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> farah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keblouti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ismahane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bouzid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sabah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ghourab </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meriem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="D\-MMM"/>
-    <numFmt numFmtId="165" formatCode="DD/MM"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1713545937" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1713545937" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1713545937" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937"/>
-        </ext>
-      </extLst>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1713545937"/>
-        </ext>
-      </extLst>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="9">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1713545937" count="1">
-        <pm:charStyle name="Normal" fontId="0" Id="1"/>
-      </pm:charStyles>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -879,238 +1027,162 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Basic Roman"/>
-        <a:cs typeface="Basic Roman"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Basic Roman" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Basic Roman" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr>
-        <a:prstTxWarp prst="textNoShape">
-          <a:avLst/>
-        </a:prstTxWarp>
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr>
-          <a:defRPr/>
-        </a:defPPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A89" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F115" activeCellId="0" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.330357" customWidth="1" style="0"/>
-    <col min="2" max="2" width="17.000000" customWidth="1" style="0"/>
-    <col min="3" max="3" width="18.776786" customWidth="1" style="0"/>
-    <col min="4" max="4" width="13.660714" customWidth="1" style="0"/>
-    <col min="6" max="6" width="14.776786" customWidth="1" style="0"/>
-    <col min="7" max="7" width="20.330357" customWidth="1" style="0"/>
-    <col min="8" max="8" width="21.000000" customWidth="1" style="0"/>
-    <col min="9" max="9" width="18.330357" customWidth="1" style="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1192,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1139,11 +1211,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -1152,7 +1224,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -1171,7 +1243,7 @@
       <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1181,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1210,7 +1282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
@@ -1266,7 +1338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
@@ -1293,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
@@ -1316,7 +1388,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
@@ -1345,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
@@ -1374,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
@@ -1401,7 +1473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -1428,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -1457,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -1486,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -1515,7 +1587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -1544,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -1573,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -1600,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
@@ -1627,7 +1699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
@@ -1654,7 +1726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
@@ -1681,7 +1753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
@@ -1708,7 +1780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
@@ -1735,7 +1807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
@@ -1762,7 +1834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
@@ -1789,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
@@ -1816,7 +1888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
@@ -1843,7 +1915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
@@ -1870,7 +1942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
@@ -1897,7 +1969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -1924,7 +1996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
@@ -1951,7 +2023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
@@ -1980,7 +2052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -2009,7 +2081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -2038,7 +2110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -2065,7 +2137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -2092,7 +2164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -2119,7 +2191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>35</v>
       </c>
@@ -2146,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
@@ -2173,7 +2245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>37</v>
       </c>
@@ -2200,7 +2272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
@@ -2227,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
@@ -2254,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
@@ -2283,7 +2355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
@@ -2310,7 +2382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
@@ -2337,7 +2409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
@@ -2364,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
@@ -2391,7 +2463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
@@ -2420,7 +2492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
@@ -2447,7 +2519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
@@ -2466,7 +2538,7 @@
       <c r="F50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -2476,7 +2548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
@@ -2495,7 +2567,7 @@
       <c r="F51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -2505,7 +2577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
@@ -2524,7 +2596,7 @@
       <c r="F52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -2534,7 +2606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
@@ -2553,7 +2625,7 @@
       <c r="F53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -2563,7 +2635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>51</v>
       </c>
@@ -2582,7 +2654,7 @@
       <c r="F54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -2592,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
@@ -2611,7 +2683,7 @@
       <c r="F55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -2621,7 +2693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>53</v>
       </c>
@@ -2640,7 +2712,7 @@
       <c r="F56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -2650,7 +2722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
@@ -2669,7 +2741,7 @@
       <c r="F57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -2679,7 +2751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
@@ -2698,7 +2770,7 @@
       <c r="F58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -2708,7 +2780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
@@ -2727,7 +2799,7 @@
       <c r="F59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -2737,7 +2809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>57</v>
       </c>
@@ -2756,7 +2828,7 @@
       <c r="F60" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -2766,7 +2838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
@@ -2785,7 +2857,7 @@
       <c r="F61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -2795,7 +2867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
@@ -2814,7 +2886,7 @@
       <c r="F62" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -2824,7 +2896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
@@ -2843,7 +2915,7 @@
       <c r="F63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -2853,7 +2925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>61</v>
       </c>
@@ -2872,7 +2944,7 @@
       <c r="F64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -2882,7 +2954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
@@ -2901,7 +2973,7 @@
       <c r="F65" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -2911,7 +2983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>63</v>
       </c>
@@ -2930,7 +3002,7 @@
       <c r="F66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -2940,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
@@ -2959,7 +3031,7 @@
       <c r="F67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -2969,7 +3041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>65</v>
       </c>
@@ -2998,7 +3070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
@@ -3027,7 +3099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>67</v>
       </c>
@@ -3056,7 +3128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
@@ -3075,7 +3147,7 @@
       <c r="F71" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3085,7 +3157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>69</v>
       </c>
@@ -3104,7 +3176,7 @@
       <c r="F72" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3114,7 +3186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
@@ -3133,7 +3205,7 @@
       <c r="F73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3143,7 +3215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>71</v>
       </c>
@@ -3162,7 +3234,7 @@
       <c r="F74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3172,7 +3244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
@@ -3201,7 +3273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>73</v>
       </c>
@@ -3230,7 +3302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>74</v>
       </c>
@@ -3259,7 +3331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>75</v>
       </c>
@@ -3288,7 +3360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>76</v>
       </c>
@@ -3317,7 +3389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>77</v>
       </c>
@@ -3346,7 +3418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>78</v>
       </c>
@@ -3375,7 +3447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>79</v>
       </c>
@@ -3404,7 +3476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>80</v>
       </c>
@@ -3433,7 +3505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>81</v>
       </c>
@@ -3462,7 +3534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>82</v>
       </c>
@@ -3491,7 +3563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>83</v>
       </c>
@@ -3520,7 +3592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>84</v>
       </c>
@@ -3549,7 +3621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>85</v>
       </c>
@@ -3578,7 +3650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>86</v>
       </c>
@@ -3607,7 +3679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>87</v>
       </c>
@@ -3636,7 +3708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>88</v>
       </c>
@@ -3655,7 +3727,7 @@
       <c r="F91" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3665,7 +3737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>89</v>
       </c>
@@ -3684,7 +3756,7 @@
       <c r="F92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3694,7 +3766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>90</v>
       </c>
@@ -3713,7 +3785,7 @@
       <c r="F93" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3723,528 +3795,848 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="1" t="n">
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F94" s="1" t="n">
+      <c r="F94" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="1" t="n">
+      <c r="E95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F95" s="1" t="n">
+      <c r="F95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="1" t="n">
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F96" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="1" t="n">
+      <c r="E97" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="n">
+      <c r="F97" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1" t="n">
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="F98" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="1" t="n">
+      <c r="D99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F99" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="F99" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="1" t="n">
+      <c r="E100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F100" s="1" t="n">
+      <c r="F100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1" t="n">
+      <c r="D101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F101" s="1" t="n">
+      <c r="F101" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="1" t="n">
+      <c r="E102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F102" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="F102" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="B103" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="B104" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="B105" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F105" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="B106" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="B107" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="B108" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F108" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="B109" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F109" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="B110" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="B111" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="B112" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="B113" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E113" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="B114" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="B115" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="B116" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F116" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="B117" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="B118" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="B119" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="B120" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="B121" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E121" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F121" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="B122" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>120</v>
       </c>
@@ -4257,7 +4649,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>121</v>
       </c>
@@ -4270,7 +4662,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>122</v>
       </c>
@@ -4283,7 +4675,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>123</v>
       </c>
@@ -4296,7 +4688,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>124</v>
       </c>
@@ -4309,7 +4701,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>125</v>
       </c>
@@ -4322,7 +4714,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>126</v>
       </c>
@@ -4336,106 +4728,58 @@
       <c r="I129" s="1"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F115 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F115 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.553571" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1713545937" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1713545937" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="295">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -850,6 +850,63 @@
   </si>
   <si>
     <t xml:space="preserve"> meriem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belmokhtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamzaoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zidan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benhaddad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali</t>
   </si>
 </sst>
 </file>
@@ -940,19 +997,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,15 +1005,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,2900 +1221,2901 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F115" activeCellId="0" sqref="F115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="10.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="F22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2" t="n">
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2" t="n">
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="F37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2" t="n">
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="2" t="n">
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
+      <c r="F45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
+      <c r="F46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+      <c r="F47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F48" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="F48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2" t="n">
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F50" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="F51" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F52" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="F52" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="2" t="n">
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="F54" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="2" t="n">
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="F56" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="2" t="n">
+      <c r="D57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="F58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F59" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="F59" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="2" t="n">
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="F60" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="2" t="n">
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="F61" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F62" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="F62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="2" t="n">
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F65" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="F65" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="2" t="n">
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="F66" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="2" t="n">
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F67" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="F67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="2" t="n">
+      <c r="D68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="2" t="n">
+      <c r="D69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="2" t="n">
+      <c r="D71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F71" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="F71" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="2" t="n">
+      <c r="D72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="F72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2" t="n">
+      <c r="D73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F73" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="F73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2" t="n">
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="F74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2" t="n">
+      <c r="D75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2" t="n">
+      <c r="D76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2" t="n">
+      <c r="D77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="3" t="n">
         <v>77</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="F82" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2" t="n">
+      <c r="D85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2" t="n">
+      <c r="D86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2" t="n">
+      <c r="D87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F87" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="2" t="n">
+      <c r="D88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F88" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F88" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2" t="n">
+      <c r="D89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F89" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="F89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="F90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2" t="n">
+      <c r="D91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="2" t="n">
+      <c r="D92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F93" s="2" t="n">
+      <c r="F93" s="3" t="n">
         <v>3</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="2" t="n">
+      <c r="D94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="2" t="n">
+      <c r="D96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F96" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="F96" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="2" t="n">
+      <c r="D98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="2" t="n">
+      <c r="D99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F99" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F99" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="2" t="n">
+      <c r="D101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F102" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F102" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="3" t="n">
         <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -4086,7 +4144,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="3" t="n">
         <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -4115,7 +4173,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="3" t="n">
         <v>102</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -4144,7 +4202,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="3" t="n">
         <v>103</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -4173,7 +4231,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="3" t="n">
         <v>104</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -4202,7 +4260,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="3" t="n">
         <v>105</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -4231,7 +4289,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="3" t="n">
         <v>106</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -4260,7 +4318,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="3" t="n">
         <v>107</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -4289,7 +4347,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="3" t="n">
         <v>108</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -4318,7 +4376,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="3" t="n">
         <v>109</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -4347,7 +4405,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="3" t="n">
         <v>110</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -4376,7 +4434,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="3" t="n">
         <v>111</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -4405,7 +4463,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="3" t="n">
         <v>112</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -4434,7 +4492,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="3" t="n">
         <v>113</v>
       </c>
       <c r="B116" s="7" t="s">
@@ -4463,7 +4521,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="3" t="n">
         <v>114</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -4492,7 +4550,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="3" t="n">
         <v>115</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -4521,7 +4579,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="3" t="n">
         <v>116</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -4550,7 +4608,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="3" t="n">
         <v>117</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -4579,7 +4637,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="3" t="n">
         <v>118</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -4608,7 +4666,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="3" t="n">
         <v>119</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -4637,95 +4695,579 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="B124" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="B125" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="B126" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="B127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="B128" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="B129" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="n">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="n">
+        <v>144</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="n">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="n">
+        <v>146</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4746,7 +5288,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F115 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4769,7 +5311,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F115 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDCF46-75BB-4EE0-B862-D7BB5D52B7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B517EB-0EA3-42B6-A9B9-C3D119C61312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -654,9 +654,6 @@
   </si>
   <si>
     <t>Nour</t>
-  </si>
-  <si>
-    <t>candy</t>
   </si>
   <si>
     <t>Cherif</t>
@@ -676,8 +673,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="d\-mmm"/>
-    <numFmt numFmtId="173" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -728,10 +725,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1020,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3849,7 +3846,7 @@
         <v>122</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3857,10 +3854,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>19</v>
@@ -3886,10 +3883,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>201</v>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B517EB-0EA3-42B6-A9B9-C3D119C61312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDCF46-75BB-4EE0-B862-D7BB5D52B7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>Nour</t>
+  </si>
+  <si>
+    <t>candy</t>
   </si>
   <si>
     <t>Cherif</t>
@@ -673,8 +676,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d\-mmm"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="172" formatCode="d\-mmm"/>
+    <numFmt numFmtId="173" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -725,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1017,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3846,7 +3849,7 @@
         <v>122</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3854,10 +3857,10 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>19</v>
@@ -3883,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>201</v>

--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,389 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDCF46-75BB-4EE0-B862-D7BB5D52B7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1713545937" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1713545937" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1713545937" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1713545937"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="213">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="295">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Niveau_scolaire</t>
-  </si>
-  <si>
-    <t>Classement_fraternel</t>
-  </si>
-  <si>
-    <t>Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t>Classe</t>
-  </si>
-  <si>
-    <t>Ordre/Nb total</t>
-  </si>
-  <si>
-    <t>kadour</t>
-  </si>
-  <si>
-    <t>merieme</t>
-  </si>
-  <si>
-    <t>Fille</t>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau_scolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classement_fraternel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordre/Nb total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merieme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fille</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(4/4)</t>
-  </si>
-  <si>
-    <t>image 1</t>
-  </si>
-  <si>
-    <t>Poupée</t>
-  </si>
-  <si>
-    <t>abdaoui</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>Garçon</t>
-  </si>
-  <si>
-    <t>(3/3)</t>
-  </si>
-  <si>
-    <t>image 2</t>
-  </si>
-  <si>
-    <t>Voiture</t>
-  </si>
-  <si>
-    <t>chdadi</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>gafar</t>
-  </si>
-  <si>
-    <t>anas</t>
-  </si>
-  <si>
-    <t>Ballon</t>
-  </si>
-  <si>
-    <t>moiz</t>
-  </si>
-  <si>
-    <t>(2/2)</t>
-  </si>
-  <si>
-    <t>logein</t>
-  </si>
-  <si>
-    <t>(1/1)</t>
-  </si>
-  <si>
-    <t>boulifa</t>
-  </si>
-  <si>
-    <t>khalil</t>
-  </si>
-  <si>
-    <t>(3/4)</t>
+    <t xml:space="preserve">(4/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdaoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garçon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chdadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boulifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/4)</t>
   </si>
   <si>
     <t xml:space="preserve">mezrgich </t>
   </si>
   <si>
-    <t>merime</t>
-  </si>
-  <si>
-    <t>iyad</t>
-  </si>
-  <si>
-    <t>islem</t>
-  </si>
-  <si>
-    <t>derwich</t>
-  </si>
-  <si>
-    <t>(4/5)</t>
-  </si>
-  <si>
-    <t>Bonbon</t>
-  </si>
-  <si>
-    <t>nadji</t>
-  </si>
-  <si>
-    <t>(3/5)</t>
-  </si>
-  <si>
-    <t>wassim</t>
-  </si>
-  <si>
-    <t>(5/5)</t>
-  </si>
-  <si>
-    <t>amouri</t>
-  </si>
-  <si>
-    <t>fares</t>
-  </si>
-  <si>
-    <t>(1/2)</t>
-  </si>
-  <si>
-    <t>aya</t>
-  </si>
-  <si>
-    <t>Mehdi</t>
-  </si>
-  <si>
-    <t>Abdel hak</t>
-  </si>
-  <si>
-    <t>Bounamous</t>
+    <t xml:space="preserve">merime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wassim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdel hak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounamous</t>
   </si>
   <si>
     <t xml:space="preserve">Marouane </t>
   </si>
   <si>
-    <t>abdel rahmane</t>
-  </si>
-  <si>
-    <t>Bougouffa</t>
-  </si>
-  <si>
-    <t>nadjemeddine</t>
-  </si>
-  <si>
-    <t>Brahimi</t>
-  </si>
-  <si>
-    <t>Lina</t>
-  </si>
-  <si>
-    <t>image 3</t>
+    <t xml:space="preserve">abdel rahmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bougouffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadjemeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 3</t>
   </si>
   <si>
     <t xml:space="preserve">Animal </t>
   </si>
   <si>
-    <t>Ayada</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Absi</t>
-  </si>
-  <si>
-    <t>Mourad</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Cherafa</t>
-  </si>
-  <si>
-    <t>Marame</t>
+    <t xml:space="preserve">Ayada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mourad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marame</t>
   </si>
   <si>
     <t xml:space="preserve">Cherafa </t>
   </si>
   <si>
-    <t>Louay</t>
-  </si>
-  <si>
-    <t>Ameur Soualem</t>
-  </si>
-  <si>
-    <t>Khouloud</t>
-  </si>
-  <si>
-    <t>Berezag</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Allaoua</t>
-  </si>
-  <si>
-    <t>Amina</t>
-  </si>
-  <si>
-    <t>chericheri</t>
-  </si>
-  <si>
-    <t>Malek</t>
-  </si>
-  <si>
-    <t>Bouzid</t>
-  </si>
-  <si>
-    <t>Image 1</t>
-  </si>
-  <si>
-    <t>Youssef</t>
-  </si>
-  <si>
-    <t>Image 3</t>
-  </si>
-  <si>
-    <t>Abbassi</t>
-  </si>
-  <si>
-    <t>(2/3)</t>
-  </si>
-  <si>
-    <t>chettab</t>
-  </si>
-  <si>
-    <t>serine</t>
-  </si>
-  <si>
-    <t>hachmi</t>
-  </si>
-  <si>
-    <t>salah</t>
+    <t xml:space="preserve">Louay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameur Soualem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khouloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berezag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allaoua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chericheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouzid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chettab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hachmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salah</t>
   </si>
   <si>
     <t xml:space="preserve">soualhi </t>
   </si>
   <si>
-    <t>mouhanad</t>
-  </si>
-  <si>
-    <t>malek</t>
-  </si>
-  <si>
-    <t>amrousi</t>
-  </si>
-  <si>
-    <t>diaeddine</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>boustani</t>
-  </si>
-  <si>
-    <t>hamza</t>
+    <t xml:space="preserve">mouhanad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amrousi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaeddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boustani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamza</t>
   </si>
   <si>
     <t xml:space="preserve">boustani </t>
   </si>
   <si>
-    <t>farah</t>
-  </si>
-  <si>
-    <t>merzoug</t>
-  </si>
-  <si>
-    <t>aymen</t>
-  </si>
-  <si>
-    <t>zenati</t>
-  </si>
-  <si>
-    <t>islam</t>
-  </si>
-  <si>
-    <t>boukachabia</t>
-  </si>
-  <si>
-    <t>chamseddine</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>sayfi</t>
-  </si>
-  <si>
-    <t>nour</t>
-  </si>
-  <si>
-    <t>rahani</t>
-  </si>
-  <si>
-    <t>hana</t>
-  </si>
-  <si>
-    <t>boudjmaa</t>
-  </si>
-  <si>
-    <t>nazim</t>
-  </si>
-  <si>
-    <t>djaballah</t>
-  </si>
-  <si>
-    <t>behlouli</t>
-  </si>
-  <si>
-    <t>Malik</t>
-  </si>
-  <si>
-    <t>Image2</t>
-  </si>
-  <si>
-    <t>Chofa</t>
-  </si>
-  <si>
-    <t>Sajed</t>
-  </si>
-  <si>
-    <t>(1/3)</t>
+    <t xml:space="preserve">farah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merzoug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aymen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boukachabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamseddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boudjmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nazim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djaballah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behlouli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/3)</t>
   </si>
   <si>
     <t xml:space="preserve">Image 1 </t>
@@ -392,299 +384,563 @@
     <t xml:space="preserve">Atrouse </t>
   </si>
   <si>
-    <t>Firas</t>
+    <t xml:space="preserve">Firas</t>
   </si>
   <si>
     <t xml:space="preserve">Ziyadi </t>
   </si>
   <si>
-    <t>Image 2</t>
-  </si>
-  <si>
-    <t>Khlefi</t>
-  </si>
-  <si>
-    <t>Jana</t>
-  </si>
-  <si>
-    <t>Nouwara</t>
-  </si>
-  <si>
-    <t>Mohamed Yacine</t>
-  </si>
-  <si>
-    <t>Nouri</t>
-  </si>
-  <si>
-    <t>Adem</t>
-  </si>
-  <si>
-    <t>Boumanjel</t>
-  </si>
-  <si>
-    <t>Haitem</t>
-  </si>
-  <si>
-    <t>Berak</t>
-  </si>
-  <si>
-    <t>Soltani</t>
-  </si>
-  <si>
-    <t>Ratile sounedes</t>
-  </si>
-  <si>
-    <t>Chaweche</t>
-  </si>
-  <si>
-    <t>Rime</t>
-  </si>
-  <si>
-    <t>Boudchicha</t>
-  </si>
-  <si>
-    <t>Anes</t>
-  </si>
-  <si>
-    <t>Aitikhlef</t>
-  </si>
-  <si>
-    <t>Arilase</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Rezaki</t>
-  </si>
-  <si>
-    <t>Taleb</t>
-  </si>
-  <si>
-    <t>Assil</t>
-  </si>
-  <si>
-    <t>Razouk</t>
-  </si>
-  <si>
-    <t>Kabise</t>
-  </si>
-  <si>
-    <t>Bouakal</t>
-  </si>
-  <si>
-    <t>Racim</t>
-  </si>
-  <si>
-    <t>Bakouche</t>
-  </si>
-  <si>
-    <t>Zinedinne</t>
-  </si>
-  <si>
-    <t>Satouh</t>
+    <t xml:space="preserve">Image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khlefi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouwara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Yacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boumanjel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haitem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratile sounedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaweche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boudchicha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aitikhlef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arilase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taleb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razouk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouakal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakouche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinedinne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satouh</t>
   </si>
   <si>
     <t xml:space="preserve">Bayrem  </t>
   </si>
   <si>
-    <t>Akrem</t>
-  </si>
-  <si>
-    <t>Bouajada</t>
-  </si>
-  <si>
-    <t>Nour el houda</t>
-  </si>
-  <si>
-    <t>khchman</t>
-  </si>
-  <si>
-    <t>Lokmane</t>
-  </si>
-  <si>
-    <t>Bourasase</t>
-  </si>
-  <si>
-    <t>Fadi</t>
-  </si>
-  <si>
-    <t>Boudakhana</t>
-  </si>
-  <si>
-    <t>Harone</t>
-  </si>
-  <si>
-    <t>boallse</t>
-  </si>
-  <si>
-    <t>Abd el kader</t>
-  </si>
-  <si>
-    <t>Medrouae</t>
-  </si>
-  <si>
-    <t>Bouhafer</t>
-  </si>
-  <si>
-    <t>Abd Rhime</t>
-  </si>
-  <si>
-    <t>Lkhlefi</t>
-  </si>
-  <si>
-    <t>Idrisse</t>
-  </si>
-  <si>
-    <t>Lefoul</t>
-  </si>
-  <si>
-    <t>Rimase</t>
-  </si>
-  <si>
-    <t>Atoui</t>
-  </si>
-  <si>
-    <t>Kawthar</t>
-  </si>
-  <si>
-    <t>Bouassida</t>
-  </si>
-  <si>
-    <t>Manar</t>
-  </si>
-  <si>
-    <t>Boziyou</t>
-  </si>
-  <si>
-    <t>Hana</t>
-  </si>
-  <si>
-    <t>Faydi</t>
-  </si>
-  <si>
-    <t>Khawla</t>
-  </si>
-  <si>
-    <t>Harwadi</t>
-  </si>
-  <si>
-    <t>Kenza</t>
-  </si>
-  <si>
-    <t>Soltan</t>
-  </si>
-  <si>
-    <t>Bouabssa</t>
-  </si>
-  <si>
-    <t>Nidal</t>
-  </si>
-  <si>
-    <t>Larked</t>
-  </si>
-  <si>
-    <t>Mohamed Said</t>
-  </si>
-  <si>
-    <t>Benamara</t>
-  </si>
-  <si>
-    <t>yahia</t>
-  </si>
-  <si>
-    <t>Hkati</t>
-  </si>
-  <si>
-    <t>Saïda</t>
-  </si>
-  <si>
-    <t>Abderraouf</t>
-  </si>
-  <si>
-    <t>Kedri</t>
-  </si>
-  <si>
-    <t>Amrane</t>
-  </si>
-  <si>
-    <t>Haddad</t>
-  </si>
-  <si>
-    <t>allali</t>
-  </si>
-  <si>
-    <t>waffa</t>
-  </si>
-  <si>
-    <t>bencalem</t>
-  </si>
-  <si>
-    <t>yacine</t>
-  </si>
-  <si>
-    <t>Belkacem</t>
-  </si>
-  <si>
-    <t>amina</t>
-  </si>
-  <si>
-    <t>Ait Slimani</t>
-  </si>
-  <si>
-    <t>soufiane</t>
+    <t xml:space="preserve">Akrem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouajada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nour el houda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khchman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourasase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boudakhana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boallse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abd el kader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medrouae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouhafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abd Rhime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lkhlefi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idrisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lefoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rimase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawthar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouassida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boziyou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faydi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khawla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harwadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soltan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouabssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nidal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benamara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hkati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saïda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abderraouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bencalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belkacem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ait Slimani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soufiane</t>
   </si>
   <si>
     <t xml:space="preserve">Fille </t>
   </si>
   <si>
-    <t>Touati</t>
-  </si>
-  <si>
-    <t>Karim</t>
-  </si>
-  <si>
-    <t>Bouziane</t>
-  </si>
-  <si>
-    <t>yassir</t>
-  </si>
-  <si>
-    <t>Benyahya</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>Cherif</t>
-  </si>
-  <si>
-    <t>Salim</t>
-  </si>
-  <si>
-    <t>Mansouri</t>
-  </si>
-  <si>
-    <t>Maya</t>
+    <t xml:space="preserve">Touati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouziane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yassir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benyahya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seraidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> garcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mnadjlia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abd eraeouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hamdi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taki eddine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chouaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ballom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chirak </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chouater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fille</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poupee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hamadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> achref</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bonbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rahmouni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> houssem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guechi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hemame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boudir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ramzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kouadria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ishak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">djafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malek </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gasmi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poupee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> belaid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maroua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> djeloul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> djendoubi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> farah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keblouti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ismahane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bouzid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sabah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (5/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ghourab </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meriem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belmokhtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamzaoui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zidan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benhaddad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="d\-mmm"/>
-    <numFmt numFmtId="173" formatCode="dd/mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,108 +952,127 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1713545937" count="1">
-        <pm:charStyle name="Normal" fontId="0" Id="1"/>
-      </pm:charStyles>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -805,239 +1080,165 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Basic Roman"/>
-        <a:cs typeface="Basic Roman"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Basic Roman" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Basic Roman" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr>
-        <a:prstTxWarp prst="textNoShape">
-          <a:avLst/>
-        </a:prstTxWarp>
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr>
-          <a:defRPr/>
-        </a:defPPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="10.55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1046,7 +1247,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1065,11 +1266,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -1078,8 +1279,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1094,10 +1295,10 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1107,8 +1308,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1120,10 +1321,10 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1136,8 +1337,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1147,10 +1348,10 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1163,8 +1364,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1176,10 +1377,10 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1192,8 +1393,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -1203,10 +1404,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1219,8 +1420,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -1230,10 +1431,10 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1242,8 +1443,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1255,10 +1456,10 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1271,8 +1472,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1284,10 +1485,10 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1300,8 +1501,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
@@ -1311,10 +1512,10 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1327,8 +1528,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
@@ -1338,10 +1539,10 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1354,8 +1555,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1367,10 +1568,10 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1383,8 +1584,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1396,10 +1597,10 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1412,8 +1613,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1425,10 +1626,10 @@
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1441,8 +1642,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1454,10 +1655,10 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1470,8 +1671,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1483,10 +1684,10 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1499,8 +1700,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1512,13 +1713,12 @@
       <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
       <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1526,8 +1726,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1539,10 +1739,10 @@
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
@@ -1553,8 +1753,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1566,10 +1766,10 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="2"/>
@@ -1580,8 +1780,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1593,10 +1793,10 @@
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1607,8 +1807,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1620,10 +1820,10 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G22" s="2"/>
@@ -1634,8 +1834,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1647,10 +1847,10 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G23" s="2"/>
@@ -1661,8 +1861,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1674,10 +1874,10 @@
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
@@ -1688,8 +1888,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1701,10 +1901,10 @@
       <c r="D25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G25" s="2"/>
@@ -1715,8 +1915,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1728,10 +1928,10 @@
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G26" s="2"/>
@@ -1742,8 +1942,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1755,10 +1955,10 @@
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G27" s="2"/>
@@ -1769,8 +1969,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1782,10 +1982,10 @@
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
@@ -1796,8 +1996,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1809,10 +2009,10 @@
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G29" s="2"/>
@@ -1823,8 +2023,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1836,10 +2036,10 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="2"/>
@@ -1850,8 +2050,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1863,10 +2063,10 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="2"/>
@@ -1877,8 +2077,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1890,10 +2090,10 @@
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1906,8 +2106,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1919,10 +2119,10 @@
       <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1935,8 +2135,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1948,10 +2148,10 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1964,8 +2164,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1977,10 +2177,10 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="2"/>
@@ -1991,8 +2191,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2004,10 +2204,10 @@
       <c r="D36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G36" s="2"/>
@@ -2018,8 +2218,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2031,10 +2231,10 @@
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G37" s="2"/>
@@ -2045,8 +2245,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2058,10 +2258,10 @@
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
@@ -2072,8 +2272,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2085,10 +2285,10 @@
       <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="2"/>
@@ -2099,8 +2299,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2112,10 +2312,10 @@
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="2"/>
@@ -2126,8 +2326,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2139,10 +2339,10 @@
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="2"/>
@@ -2153,8 +2353,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2166,10 +2366,10 @@
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G42" s="2"/>
@@ -2180,8 +2380,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2193,10 +2393,10 @@
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2209,8 +2409,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2222,10 +2422,10 @@
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G44" s="2"/>
@@ -2236,8 +2436,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2249,10 +2449,10 @@
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G45" s="2"/>
@@ -2263,8 +2463,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2276,10 +2476,10 @@
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G46" s="2"/>
@@ -2290,8 +2490,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2303,10 +2503,10 @@
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
@@ -2317,8 +2517,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2330,10 +2530,10 @@
       <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2346,8 +2546,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2359,10 +2559,10 @@
       <c r="D49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
@@ -2373,8 +2573,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2386,13 +2586,13 @@
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F50" s="2">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -2402,8 +2602,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2415,13 +2615,13 @@
       <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F51" s="2">
-        <v>3</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -2431,8 +2631,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2444,13 +2644,13 @@
       <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -2460,8 +2660,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2473,13 +2673,13 @@
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F53" s="2">
-        <v>3</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -2489,8 +2689,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2502,13 +2702,13 @@
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F54" s="2">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -2518,8 +2718,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2531,13 +2731,13 @@
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="2">
-        <v>3</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -2547,8 +2747,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2560,13 +2760,13 @@
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F56" s="2">
-        <v>3</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -2576,8 +2776,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2589,13 +2789,13 @@
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F57" s="2">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -2605,8 +2805,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2618,13 +2818,13 @@
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F58" s="2">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -2634,8 +2834,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2647,13 +2847,13 @@
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F59" s="2">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -2663,8 +2863,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2676,13 +2876,13 @@
       <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="2">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -2692,8 +2892,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2705,13 +2905,13 @@
       <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F61" s="2">
-        <v>3</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="F61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -2721,8 +2921,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2734,13 +2934,13 @@
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F62" s="2">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="F62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -2750,8 +2950,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2763,13 +2963,13 @@
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -2779,8 +2979,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2792,13 +2992,13 @@
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -2808,8 +3008,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2821,13 +3021,13 @@
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F65" s="2">
-        <v>3</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -2837,8 +3037,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2850,13 +3050,13 @@
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F66" s="2">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -2866,8 +3066,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2879,13 +3079,13 @@
       <c r="D67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F67" s="2">
-        <v>3</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -2895,8 +3095,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2908,10 +3108,10 @@
       <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -2924,8 +3124,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2937,10 +3137,10 @@
       <c r="D69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -2953,8 +3153,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2966,10 +3166,10 @@
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -2982,8 +3182,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2995,13 +3195,13 @@
       <c r="D71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F71" s="2">
-        <v>3</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="F71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3011,8 +3211,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3024,13 +3224,13 @@
       <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F72" s="2">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3040,8 +3240,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3053,13 +3253,13 @@
       <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F73" s="2">
-        <v>3</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="F73" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3069,8 +3269,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3082,13 +3282,13 @@
       <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F74" s="2">
-        <v>3</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="F74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -3098,8 +3298,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3111,10 +3311,10 @@
       <c r="D75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3127,8 +3327,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3140,10 +3340,10 @@
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -3156,8 +3356,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3169,10 +3369,10 @@
       <c r="D77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -3185,8 +3385,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3198,10 +3398,10 @@
       <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -3214,8 +3414,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3227,10 +3427,10 @@
       <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -3243,8 +3443,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3256,10 +3456,10 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -3272,8 +3472,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3285,10 +3485,10 @@
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -3301,8 +3501,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="82" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3314,10 +3514,10 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3330,8 +3530,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3343,10 +3543,10 @@
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -3359,8 +3559,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3372,10 +3572,10 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -3388,8 +3588,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3401,10 +3601,10 @@
       <c r="D85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -3417,8 +3617,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="86" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3430,10 +3630,10 @@
       <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -3446,8 +3646,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="87" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3459,10 +3659,10 @@
       <c r="D87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -3475,8 +3675,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="88" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3488,10 +3688,10 @@
       <c r="D88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3504,8 +3704,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="89" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3517,10 +3717,10 @@
       <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -3533,8 +3733,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="90" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3546,10 +3746,10 @@
       <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -3562,8 +3762,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="91" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3575,13 +3775,13 @@
       <c r="D91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -3591,8 +3791,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3604,13 +3804,13 @@
       <c r="D92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -3620,8 +3820,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="93" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3633,13 +3833,13 @@
       <c r="D93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F93" s="2">
-        <v>3</v>
-      </c>
-      <c r="G93" s="4" t="s">
+      <c r="F93" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -3649,8 +3849,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3662,10 +3862,10 @@
       <c r="D94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -3678,8 +3878,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3691,10 +3891,10 @@
       <c r="D95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G95" s="2" t="s">
@@ -3707,8 +3907,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="96" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3720,10 +3920,10 @@
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -3736,8 +3936,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3749,10 +3949,10 @@
       <c r="D97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G97" s="2" t="s">
@@ -3765,8 +3965,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3778,10 +3978,10 @@
       <c r="D98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G98" s="2" t="s">
@@ -3794,8 +3994,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3807,10 +4007,10 @@
       <c r="D99" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -3823,8 +4023,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="100" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3836,10 +4036,10 @@
       <c r="D100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -3852,8 +4052,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3865,10 +4065,10 @@
       <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
@@ -3881,8 +4081,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="102" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3894,10 +4094,10 @@
       <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G102" s="2" t="s">
@@ -3910,409 +4110,1214 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="B103" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="B104" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="B105" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="B106" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="B107" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="B108" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F108" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="B109" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="B110" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="B111" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="B112" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="B113" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="B114" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="B115" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="B116" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="B117" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="B118" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="B119" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="B120" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="B121" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F121" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="B122" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="B123" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="B124" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="B125" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="B126" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="B127" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="B128" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="B129" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1713545937" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/BDD enfants.xlsx
+++ b/BDD enfants.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Documents\GitHub\AI_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095C72F-264C-4CED-8112-260BC3D47AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,360 +27,360 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="295">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prénom</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="286">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
   </si>
   <si>
     <t xml:space="preserve">Fille / Garçon </t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau_scolaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classement_fraternel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessin_animé_préféré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordre/Nb total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kadour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merieme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fille</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Niveau_scolaire</t>
+  </si>
+  <si>
+    <t>Classement_fraternel</t>
+  </si>
+  <si>
+    <t>Dessin_animé_préféré</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Ordre/Nb total</t>
+  </si>
+  <si>
+    <t>kadour</t>
+  </si>
+  <si>
+    <t>merieme</t>
+  </si>
+  <si>
+    <t>Fille</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">(4/4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poupée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abdaoui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garçon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voiture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chdadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gafar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1/1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boulifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khalil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3/4)</t>
+    <t>(4/4)</t>
+  </si>
+  <si>
+    <t>image 1</t>
+  </si>
+  <si>
+    <t>Poupée</t>
+  </si>
+  <si>
+    <t>abdaoui</t>
+  </si>
+  <si>
+    <t>amir</t>
+  </si>
+  <si>
+    <t>Garçon</t>
+  </si>
+  <si>
+    <t>(3/3)</t>
+  </si>
+  <si>
+    <t>image 2</t>
+  </si>
+  <si>
+    <t>Voiture</t>
+  </si>
+  <si>
+    <t>chdadi</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>gafar</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>Ballon</t>
+  </si>
+  <si>
+    <t>moiz</t>
+  </si>
+  <si>
+    <t>(2/2)</t>
+  </si>
+  <si>
+    <t>logein</t>
+  </si>
+  <si>
+    <t>(1/1)</t>
+  </si>
+  <si>
+    <t>boulifa</t>
+  </si>
+  <si>
+    <t>khalil</t>
+  </si>
+  <si>
+    <t>(3/4)</t>
   </si>
   <si>
     <t xml:space="preserve">mezrgich </t>
   </si>
   <si>
-    <t xml:space="preserve">merime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iyad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4/5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3/5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wassim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5/5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdel hak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bounamous</t>
+    <t>merime</t>
+  </si>
+  <si>
+    <t>iyad</t>
+  </si>
+  <si>
+    <t>islem</t>
+  </si>
+  <si>
+    <t>derwich</t>
+  </si>
+  <si>
+    <t>(4/5)</t>
+  </si>
+  <si>
+    <t>Bonbon</t>
+  </si>
+  <si>
+    <t>nadji</t>
+  </si>
+  <si>
+    <t>(3/5)</t>
+  </si>
+  <si>
+    <t>wassim</t>
+  </si>
+  <si>
+    <t>(5/5)</t>
+  </si>
+  <si>
+    <t>amouri</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>(1/2)</t>
+  </si>
+  <si>
+    <t>aya</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Abdel hak</t>
+  </si>
+  <si>
+    <t>Bounamous</t>
   </si>
   <si>
     <t xml:space="preserve">Marouane </t>
   </si>
   <si>
-    <t xml:space="preserve">abdel rahmane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bougouffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadjemeddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image 3</t>
+    <t>abdel rahmane</t>
+  </si>
+  <si>
+    <t>Bougouffa</t>
+  </si>
+  <si>
+    <t>nadjemeddine</t>
+  </si>
+  <si>
+    <t>Brahimi</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>image 3</t>
   </si>
   <si>
     <t xml:space="preserve">Animal </t>
   </si>
   <si>
-    <t xml:space="preserve">Ayada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mourad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marame</t>
+    <t>Ayada</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Absi</t>
+  </si>
+  <si>
+    <t>Mourad</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Cherafa</t>
+  </si>
+  <si>
+    <t>Marame</t>
   </si>
   <si>
     <t xml:space="preserve">Cherafa </t>
   </si>
   <si>
-    <t xml:space="preserve">Louay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameur Soualem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khouloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berezag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allaoua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chericheri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouzid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youssef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbassi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chettab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hachmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salah</t>
+    <t>Louay</t>
+  </si>
+  <si>
+    <t>Ameur Soualem</t>
+  </si>
+  <si>
+    <t>Khouloud</t>
+  </si>
+  <si>
+    <t>Berezag</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Allaoua</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>chericheri</t>
+  </si>
+  <si>
+    <t>Malek</t>
+  </si>
+  <si>
+    <t>Bouzid</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Abbassi</t>
+  </si>
+  <si>
+    <t>(2/3)</t>
+  </si>
+  <si>
+    <t>chettab</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>hachmi</t>
+  </si>
+  <si>
+    <t>salah</t>
   </si>
   <si>
     <t xml:space="preserve">soualhi </t>
   </si>
   <si>
-    <t xml:space="preserve">mouhanad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amrousi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diaeddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boustani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamza</t>
+    <t>mouhanad</t>
+  </si>
+  <si>
+    <t>malek</t>
+  </si>
+  <si>
+    <t>amrousi</t>
+  </si>
+  <si>
+    <t>diaeddine</t>
+  </si>
+  <si>
+    <t>image1</t>
+  </si>
+  <si>
+    <t>boustani</t>
+  </si>
+  <si>
+    <t>hamza</t>
   </si>
   <si>
     <t xml:space="preserve">boustani </t>
   </si>
   <si>
-    <t xml:space="preserve">farah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merzoug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boukachabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chamseddine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sayfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boudjmaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djaballah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behlouli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chofa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sajed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1/3)</t>
+    <t>farah</t>
+  </si>
+  <si>
+    <t>merzoug</t>
+  </si>
+  <si>
+    <t>aymen</t>
+  </si>
+  <si>
+    <t>zenati</t>
+  </si>
+  <si>
+    <t>islam</t>
+  </si>
+  <si>
+    <t>boukachabia</t>
+  </si>
+  <si>
+    <t>chamseddine</t>
+  </si>
+  <si>
+    <t>image3</t>
+  </si>
+  <si>
+    <t>sayfi</t>
+  </si>
+  <si>
+    <t>nour</t>
+  </si>
+  <si>
+    <t>rahani</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>boudjmaa</t>
+  </si>
+  <si>
+    <t>nazim</t>
+  </si>
+  <si>
+    <t>djaballah</t>
+  </si>
+  <si>
+    <t>behlouli</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Image2</t>
+  </si>
+  <si>
+    <t>Chofa</t>
+  </si>
+  <si>
+    <t>Sajed</t>
+  </si>
+  <si>
+    <t>(1/3)</t>
   </si>
   <si>
     <t xml:space="preserve">Image 1 </t>
@@ -384,286 +389,283 @@
     <t xml:space="preserve">Atrouse </t>
   </si>
   <si>
-    <t xml:space="preserve">Firas</t>
+    <t>Firas</t>
   </si>
   <si>
     <t xml:space="preserve">Ziyadi </t>
   </si>
   <si>
-    <t xml:space="preserve">Image 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khlefi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouwara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed Yacine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boumanjel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haitem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soltani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratile sounedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaweche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boudchicha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aitikhlef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arilase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rezaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taleb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razouk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouakal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakouche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinedinne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satouh</t>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Khlefi</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Nouwara</t>
+  </si>
+  <si>
+    <t>Mohamed Yacine</t>
+  </si>
+  <si>
+    <t>Nouri</t>
+  </si>
+  <si>
+    <t>Adem</t>
+  </si>
+  <si>
+    <t>Boumanjel</t>
+  </si>
+  <si>
+    <t>Haitem</t>
+  </si>
+  <si>
+    <t>Berak</t>
+  </si>
+  <si>
+    <t>Soltani</t>
+  </si>
+  <si>
+    <t>Ratile sounedes</t>
+  </si>
+  <si>
+    <t>Chaweche</t>
+  </si>
+  <si>
+    <t>Rime</t>
+  </si>
+  <si>
+    <t>Boudchicha</t>
+  </si>
+  <si>
+    <t>Anes</t>
+  </si>
+  <si>
+    <t>Aitikhlef</t>
+  </si>
+  <si>
+    <t>Arilase</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Rezaki</t>
+  </si>
+  <si>
+    <t>Taleb</t>
+  </si>
+  <si>
+    <t>Assil</t>
+  </si>
+  <si>
+    <t>Razouk</t>
+  </si>
+  <si>
+    <t>Kabise</t>
+  </si>
+  <si>
+    <t>Bouakal</t>
+  </si>
+  <si>
+    <t>Racim</t>
+  </si>
+  <si>
+    <t>Bakouche</t>
+  </si>
+  <si>
+    <t>Zinedinne</t>
+  </si>
+  <si>
+    <t>Satouh</t>
   </si>
   <si>
     <t xml:space="preserve">Bayrem  </t>
   </si>
   <si>
-    <t xml:space="preserve">Akrem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouajada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nour el houda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khchman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lokmane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourasase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boudakhana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boallse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abd el kader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medrouae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouhafer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abd Rhime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lkhlefi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idrisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lefoul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rimase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atoui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawthar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouassida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boziyou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faydi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khawla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harwadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soltan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouabssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed Said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benamara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yahia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hkati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saïda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abderraouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kedri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bencalem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yacine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belkacem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ait Slimani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soufiane</t>
+    <t>Akrem</t>
+  </si>
+  <si>
+    <t>Bouajada</t>
+  </si>
+  <si>
+    <t>Nour el houda</t>
+  </si>
+  <si>
+    <t>khchman</t>
+  </si>
+  <si>
+    <t>Lokmane</t>
+  </si>
+  <si>
+    <t>Bourasase</t>
+  </si>
+  <si>
+    <t>Fadi</t>
+  </si>
+  <si>
+    <t>Boudakhana</t>
+  </si>
+  <si>
+    <t>Harone</t>
+  </si>
+  <si>
+    <t>boallse</t>
+  </si>
+  <si>
+    <t>Abd el kader</t>
+  </si>
+  <si>
+    <t>Medrouae</t>
+  </si>
+  <si>
+    <t>Bouhafer</t>
+  </si>
+  <si>
+    <t>Abd Rhime</t>
+  </si>
+  <si>
+    <t>Lkhlefi</t>
+  </si>
+  <si>
+    <t>Idrisse</t>
+  </si>
+  <si>
+    <t>Lefoul</t>
+  </si>
+  <si>
+    <t>Rimase</t>
+  </si>
+  <si>
+    <t>Atoui</t>
+  </si>
+  <si>
+    <t>Kawthar</t>
+  </si>
+  <si>
+    <t>Bouassida</t>
+  </si>
+  <si>
+    <t>Manar</t>
+  </si>
+  <si>
+    <t>Boziyou</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Faydi</t>
+  </si>
+  <si>
+    <t>Khawla</t>
+  </si>
+  <si>
+    <t>Harwadi</t>
+  </si>
+  <si>
+    <t>Kenza</t>
+  </si>
+  <si>
+    <t>Soltan</t>
+  </si>
+  <si>
+    <t>Bouabssa</t>
+  </si>
+  <si>
+    <t>Nidal</t>
+  </si>
+  <si>
+    <t>Larked</t>
+  </si>
+  <si>
+    <t>Mohamed Said</t>
+  </si>
+  <si>
+    <t>Benamara</t>
+  </si>
+  <si>
+    <t>yahia</t>
+  </si>
+  <si>
+    <t>Hkati</t>
+  </si>
+  <si>
+    <t>Saïda</t>
+  </si>
+  <si>
+    <t>Abderraouf</t>
+  </si>
+  <si>
+    <t>Kedri</t>
+  </si>
+  <si>
+    <t>Amrane</t>
+  </si>
+  <si>
+    <t>Haddad</t>
+  </si>
+  <si>
+    <t>allali</t>
+  </si>
+  <si>
+    <t>waffa</t>
+  </si>
+  <si>
+    <t>bencalem</t>
+  </si>
+  <si>
+    <t>yacine</t>
+  </si>
+  <si>
+    <t>Belkacem</t>
+  </si>
+  <si>
+    <t>amina</t>
+  </si>
+  <si>
+    <t>Ait Slimani</t>
+  </si>
+  <si>
+    <t>soufiane</t>
   </si>
   <si>
     <t xml:space="preserve">Fille </t>
   </si>
   <si>
-    <t xml:space="preserve">Touati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouziane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yassir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benyahya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">candy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seraidi</t>
+    <t>Touati</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Bouziane</t>
+  </si>
+  <si>
+    <t>yassir</t>
+  </si>
+  <si>
+    <t>Benyahya</t>
+  </si>
+  <si>
+    <t>Nour</t>
+  </si>
+  <si>
+    <t>Cherif</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>Mansouri</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>seraidi</t>
   </si>
   <si>
     <t xml:space="preserve"> wael</t>
@@ -678,9 +680,6 @@
     <t xml:space="preserve">image 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> ballon</t>
-  </si>
-  <si>
     <t xml:space="preserve"> mnadjlia</t>
   </si>
   <si>
@@ -690,9 +689,6 @@
     <t xml:space="preserve"> (2/2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> voiture</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hamdi </t>
   </si>
   <si>
@@ -711,9 +707,6 @@
     <t xml:space="preserve"> image 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> ballom</t>
-  </si>
-  <si>
     <t xml:space="preserve"> chirak </t>
   </si>
   <si>
@@ -735,18 +728,12 @@
     <t xml:space="preserve"> (1/5)</t>
   </si>
   <si>
-    <t xml:space="preserve"> poupee</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hamadi </t>
   </si>
   <si>
     <t xml:space="preserve"> achref</t>
   </si>
   <si>
-    <t xml:space="preserve"> bonbon</t>
-  </si>
-  <si>
     <t xml:space="preserve"> snani</t>
   </si>
   <si>
@@ -786,7 +773,7 @@
     <t xml:space="preserve"> ishak </t>
   </si>
   <si>
-    <t xml:space="preserve">djafer</t>
+    <t>djafer</t>
   </si>
   <si>
     <t xml:space="preserve">malek </t>
@@ -801,9 +788,6 @@
     <t xml:space="preserve"> (2/5)</t>
   </si>
   <si>
-    <t xml:space="preserve"> poupee </t>
-  </si>
-  <si>
     <t xml:space="preserve"> belaid </t>
   </si>
   <si>
@@ -813,9 +797,6 @@
     <t xml:space="preserve"> (3/4)</t>
   </si>
   <si>
-    <t xml:space="preserve"> animal</t>
-  </si>
-  <si>
     <t xml:space="preserve"> djeloul </t>
   </si>
   <si>
@@ -852,95 +833,75 @@
     <t xml:space="preserve"> meriem</t>
   </si>
   <si>
-    <t xml:space="preserve">Masour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belmokhtar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamzaoui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zidan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khalil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benhaddad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali</t>
+    <t>Masour</t>
+  </si>
+  <si>
+    <t>Yasmine</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>garcon</t>
+  </si>
+  <si>
+    <t>Belmokhtar</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Hamzaoui</t>
+  </si>
+  <si>
+    <t>Amira</t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>Toumi</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Zidan</t>
+  </si>
+  <si>
+    <t>Hakim</t>
+  </si>
+  <si>
+    <t>Saidi</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>Benhaddad</t>
+  </si>
+  <si>
+    <t>Ali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
-    <numFmt numFmtId="166" formatCode="dd/mm"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -952,127 +913,108 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1080,14 +1022,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Basic Roman" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Basic Roman" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1114,7 +1056,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1135,7 +1077,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1186,7 +1128,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1204,40 +1146,39 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="10.55"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1279,8 +1220,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1295,7 +1236,7 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1308,8 +1249,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1321,10 +1262,10 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1337,8 +1278,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1348,10 +1289,10 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1364,8 +1305,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1377,10 +1318,10 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1393,8 +1334,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -1404,10 +1345,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1420,8 +1361,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -1431,10 +1372,10 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1443,8 +1384,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1456,10 +1397,10 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1472,8 +1413,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1485,10 +1426,10 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1501,8 +1442,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
@@ -1512,10 +1453,10 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
         <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1528,8 +1469,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
@@ -1539,10 +1480,10 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1555,8 +1496,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1568,10 +1509,10 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1584,8 +1525,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1597,10 +1538,10 @@
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>9</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1613,8 +1554,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1626,10 +1567,10 @@
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1642,8 +1583,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1655,10 +1596,10 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1671,8 +1612,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1684,10 +1625,10 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>6</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1700,8 +1641,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1713,10 +1654,10 @@
       <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1726,8 +1667,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1739,10 +1680,10 @@
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
@@ -1753,8 +1694,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1766,10 +1707,10 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
       <c r="G20" s="2"/>
@@ -1780,8 +1721,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1793,10 +1734,10 @@
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1807,8 +1748,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1820,10 +1761,10 @@
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="2"/>
@@ -1834,8 +1775,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1847,10 +1788,10 @@
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="2"/>
@@ -1861,8 +1802,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1874,10 +1815,10 @@
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
@@ -1888,8 +1829,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1901,10 +1842,10 @@
       <c r="D25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>9</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
       <c r="G25" s="2"/>
@@ -1915,8 +1856,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1928,10 +1869,10 @@
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2"/>
@@ -1942,8 +1883,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1955,10 +1896,10 @@
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>7</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="G27" s="2"/>
@@ -1969,8 +1910,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1982,10 +1923,10 @@
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
@@ -1996,8 +1937,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2009,10 +1950,10 @@
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
         <v>3</v>
       </c>
       <c r="G29" s="2"/>
@@ -2023,8 +1964,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2036,10 +1977,10 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>6</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2"/>
@@ -2050,8 +1991,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2063,10 +2004,10 @@
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="G31" s="2"/>
@@ -2077,8 +2018,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2090,10 +2031,10 @@
       <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2106,8 +2047,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2119,10 +2060,10 @@
       <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>9</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2135,8 +2076,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2148,10 +2089,10 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
         <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2164,8 +2105,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2177,10 +2118,10 @@
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>6</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="2"/>
@@ -2191,8 +2132,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2204,10 +2145,10 @@
       <c r="D36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2" t="n">
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
         <v>3</v>
       </c>
       <c r="G36" s="2"/>
@@ -2218,8 +2159,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2231,10 +2172,10 @@
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
         <v>3</v>
       </c>
       <c r="G37" s="2"/>
@@ -2245,8 +2186,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2258,10 +2199,10 @@
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>6</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
@@ -2272,8 +2213,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2285,10 +2226,10 @@
       <c r="D39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="2"/>
@@ -2299,8 +2240,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2312,10 +2253,10 @@
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="2"/>
@@ -2326,8 +2267,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2339,10 +2280,10 @@
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>6</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="2"/>
@@ -2353,8 +2294,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2366,10 +2307,10 @@
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>7</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2"/>
@@ -2380,8 +2321,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2393,10 +2334,10 @@
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>6</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2409,8 +2350,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2422,10 +2363,10 @@
       <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>7</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2"/>
@@ -2436,8 +2377,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2449,10 +2390,10 @@
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2" t="n">
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2"/>
@@ -2463,8 +2404,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2476,10 +2417,10 @@
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2">
         <v>3</v>
       </c>
       <c r="G46" s="2"/>
@@ -2490,8 +2431,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2503,10 +2444,10 @@
       <c r="D47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2">
         <v>7</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
@@ -2517,8 +2458,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2530,10 +2471,10 @@
       <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2546,8 +2487,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2559,10 +2500,10 @@
       <c r="D49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>6</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
@@ -2573,8 +2514,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2586,10 +2527,10 @@
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="E50" s="2">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2">
         <v>3</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -2602,8 +2543,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2615,10 +2556,10 @@
       <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -2631,8 +2572,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2644,10 +2585,10 @@
       <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
         <v>3</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -2660,8 +2601,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2673,10 +2614,10 @@
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2">
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2">
         <v>3</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -2689,8 +2630,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2702,10 +2643,10 @@
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
         <v>3</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -2718,8 +2659,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2731,10 +2672,10 @@
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -2747,8 +2688,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2760,10 +2701,10 @@
       <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" s="2" t="n">
+      <c r="E56" s="2">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2">
         <v>3</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -2776,8 +2717,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2789,10 +2730,10 @@
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="n">
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2">
         <v>3</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2805,8 +2746,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2818,10 +2759,10 @@
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="E58" s="2">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2">
         <v>3</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -2834,8 +2775,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2847,10 +2788,10 @@
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="E59" s="2">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2">
         <v>3</v>
       </c>
       <c r="G59" s="4" t="s">
@@ -2863,8 +2804,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2876,10 +2817,10 @@
       <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" s="2" t="n">
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2">
         <v>3</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -2892,8 +2833,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2905,10 +2846,10 @@
       <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F61" s="2" t="n">
+      <c r="E61" s="2">
+        <v>8</v>
+      </c>
+      <c r="F61" s="2">
         <v>3</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -2921,8 +2862,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2934,10 +2875,10 @@
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="E62" s="2">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2">
         <v>3</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -2950,8 +2891,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2963,10 +2904,10 @@
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2">
         <v>6</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -2979,8 +2920,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2992,10 +2933,10 @@
       <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2">
         <v>6</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -3008,8 +2949,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3021,10 +2962,10 @@
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="n">
+      <c r="E65" s="2">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2">
         <v>3</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -3037,8 +2978,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3050,10 +2991,10 @@
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F66" s="2" t="n">
+      <c r="E66" s="2">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -3066,8 +3007,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3079,10 +3020,10 @@
       <c r="D67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F67" s="2" t="n">
+      <c r="E67" s="2">
+        <v>8</v>
+      </c>
+      <c r="F67" s="2">
         <v>3</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -3095,8 +3036,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3108,10 +3049,10 @@
       <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2">
         <v>6</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -3124,8 +3065,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3137,10 +3078,10 @@
       <c r="D69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2">
         <v>6</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3153,8 +3094,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3166,10 +3107,10 @@
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2">
         <v>10</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2">
         <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -3182,8 +3123,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3195,10 +3136,10 @@
       <c r="D71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F71" s="2" t="n">
+      <c r="E71" s="2">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2">
         <v>3</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -3211,8 +3152,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3224,10 +3165,10 @@
       <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="E72" s="2">
+        <v>8</v>
+      </c>
+      <c r="F72" s="2">
         <v>3</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -3240,8 +3181,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3253,10 +3194,10 @@
       <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2" t="n">
+      <c r="E73" s="2">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2">
         <v>3</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -3269,8 +3210,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3282,10 +3223,10 @@
       <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F74" s="2" t="n">
+      <c r="E74" s="2">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
         <v>3</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -3298,8 +3239,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3311,10 +3252,10 @@
       <c r="D75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2">
         <v>7</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="2">
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3327,8 +3268,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3340,10 +3281,10 @@
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2">
         <v>7</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="2">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -3356,8 +3297,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3369,10 +3310,10 @@
       <c r="D77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2">
         <v>7</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="2">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -3385,8 +3326,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3398,10 +3339,10 @@
       <c r="D78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2">
         <v>7</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="2">
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -3414,8 +3355,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3427,10 +3368,10 @@
       <c r="D79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2">
         <v>7</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="2">
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -3443,8 +3384,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3456,10 +3397,10 @@
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2">
         <v>7</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="2">
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -3472,8 +3413,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3485,10 +3426,10 @@
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2">
         <v>7</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="2">
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -3501,8 +3442,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3514,10 +3455,10 @@
       <c r="D82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" s="2" t="n">
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3530,8 +3471,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3543,10 +3484,10 @@
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2">
         <v>10</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="2">
         <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -3559,8 +3500,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3572,10 +3513,10 @@
       <c r="D84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -3588,8 +3529,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3601,10 +3542,10 @@
       <c r="D85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2">
         <v>6</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -3617,8 +3558,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3630,10 +3571,10 @@
       <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2">
         <v>7</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="2">
         <v>2</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -3646,8 +3587,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3659,10 +3600,10 @@
       <c r="D87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F87" s="2" t="n">
+      <c r="E87" s="2">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2">
         <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -3675,8 +3616,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3688,10 +3629,10 @@
       <c r="D88" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F88" s="2" t="n">
+      <c r="E88" s="2">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2">
         <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3704,8 +3645,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3717,10 +3658,10 @@
       <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F89" s="2" t="n">
+      <c r="E89" s="2">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2">
         <v>3</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -3733,8 +3674,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3746,10 +3687,10 @@
       <c r="D90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F90" s="2" t="n">
+      <c r="E90" s="2">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2">
         <v>3</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -3762,8 +3703,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3775,10 +3716,10 @@
       <c r="D91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2">
         <v>9</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="2">
         <v>4</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -3791,8 +3732,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3804,10 +3745,10 @@
       <c r="D92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2">
         <v>6</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -3820,8 +3761,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3833,10 +3774,10 @@
       <c r="D93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F93" s="2" t="n">
+      <c r="E93" s="2">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2">
         <v>3</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -3849,8 +3790,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3862,10 +3803,10 @@
       <c r="D94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="2">
         <v>6</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -3878,8 +3819,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3891,10 +3832,10 @@
       <c r="D95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="2">
         <v>7</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="2">
         <v>2</v>
       </c>
       <c r="G95" s="2" t="s">
@@ -3907,8 +3848,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3920,10 +3861,10 @@
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F96" s="2" t="n">
+      <c r="E96" s="2">
+        <v>8</v>
+      </c>
+      <c r="F96" s="2">
         <v>3</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -3936,8 +3877,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3949,10 +3890,10 @@
       <c r="D97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="2">
         <v>9</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="2">
         <v>4</v>
       </c>
       <c r="G97" s="2" t="s">
@@ -3965,8 +3906,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3978,10 +3919,10 @@
       <c r="D98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="2">
         <v>7</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="2">
         <v>2</v>
       </c>
       <c r="G98" s="2" t="s">
@@ -3994,8 +3935,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4007,10 +3948,10 @@
       <c r="D99" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F99" s="2" t="n">
+      <c r="E99" s="2">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2">
         <v>3</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -4023,8 +3964,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4036,10 +3977,10 @@
       <c r="D100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="2">
         <v>7</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="2">
         <v>2</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -4049,26 +3990,26 @@
         <v>122</v>
       </c>
       <c r="I100" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>98</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="2">
         <v>6</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
@@ -4081,23 +4022,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="2">
         <v>7</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" s="2">
         <v>3</v>
       </c>
       <c r="G102" s="2" t="s">
@@ -4110,603 +4051,603 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="6">
+        <v>6</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E103" s="6" t="n">
+      <c r="H103" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>101</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="6">
         <v>6</v>
       </c>
-      <c r="F103" s="6" t="n">
+      <c r="F104" s="6">
         <v>1</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E104" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F104" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="6">
+        <v>7</v>
+      </c>
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="I105" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D106" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" s="6">
+        <v>8</v>
+      </c>
+      <c r="F106" s="6">
+        <v>3</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="H106" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>104</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="6">
+        <v>9</v>
+      </c>
+      <c r="F107" s="6">
+        <v>4</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>105</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" s="6">
+        <v>9</v>
+      </c>
+      <c r="F108" s="7">
+        <v>4</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>106</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" s="6">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7">
+        <v>4</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>107</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" s="6">
+        <v>7</v>
+      </c>
+      <c r="F110" s="7">
+        <v>2</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>108</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" s="6">
+        <v>6</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>109</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112" s="6">
+        <v>6</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>110</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="6">
+        <v>6</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>111</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" s="6">
+        <v>7</v>
+      </c>
+      <c r="F114" s="7">
+        <v>2</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" s="6">
+        <v>8</v>
+      </c>
+      <c r="F115" s="6">
+        <v>3</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="6" t="n">
+      <c r="H115" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>113</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="6">
+        <v>8</v>
+      </c>
+      <c r="F116" s="6">
+        <v>3</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" s="6">
         <v>7</v>
       </c>
-      <c r="F105" s="6" t="n">
+      <c r="F117" s="7">
         <v>2</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="G117" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>115</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="6">
+        <v>7</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I118" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>116</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="6">
+        <v>6</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" s="6">
+        <v>9</v>
+      </c>
+      <c r="F120" s="7">
+        <v>4</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E106" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F106" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H106" s="6" t="s">
+      <c r="I120" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>118</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="6">
+        <v>9</v>
+      </c>
+      <c r="F121" s="7">
+        <v>4</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>119</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" s="6">
+        <v>7</v>
+      </c>
+      <c r="F122" s="7">
+        <v>2</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I106" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E107" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F107" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E108" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F108" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F109" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F110" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E111" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F111" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E112" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F112" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E113" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F113" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E114" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F114" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E115" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F115" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E116" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F116" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E117" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F117" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E118" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F118" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E119" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F119" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="I122" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C123" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E120" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F120" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G120" s="6" t="s">
+      <c r="D123" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E121" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F121" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E122" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F122" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F123" s="2" t="n">
+      <c r="E123" s="2">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2">
         <v>3</v>
       </c>
       <c r="G123" s="2" t="s">
@@ -4719,23 +4660,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E124" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E124" s="2">
         <v>6</v>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="2" t="s">
@@ -4748,23 +4689,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E125" s="2">
         <v>7</v>
       </c>
-      <c r="F125" s="2" t="n">
+      <c r="F125" s="2">
         <v>2</v>
       </c>
       <c r="G125" s="2" t="s">
@@ -4777,23 +4718,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E126" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F126" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E126" s="2">
+        <v>8</v>
+      </c>
+      <c r="F126" s="2">
         <v>3</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4806,23 +4747,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E127" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E127" s="2">
         <v>9</v>
       </c>
-      <c r="F127" s="2" t="n">
+      <c r="F127" s="2">
         <v>4</v>
       </c>
       <c r="G127" s="2" t="s">
@@ -4835,23 +4776,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E128" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E128" s="2">
         <v>7</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" s="2">
         <v>2</v>
       </c>
       <c r="G128" s="2" t="s">
@@ -4861,26 +4802,26 @@
         <v>79</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F129" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E129" s="2">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2">
         <v>3</v>
       </c>
       <c r="G129" s="2" t="s">
@@ -4893,23 +4834,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E130" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E130" s="2">
         <v>9</v>
       </c>
-      <c r="F130" s="2" t="n">
+      <c r="F130" s="2">
         <v>4</v>
       </c>
       <c r="G130" s="2" t="s">
@@ -4922,8 +4863,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4935,10 +4876,10 @@
       <c r="D131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="2">
         <v>7</v>
       </c>
-      <c r="F131" s="2" t="n">
+      <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -4951,27 +4892,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F132" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E132" s="2">
+        <v>8</v>
+      </c>
+      <c r="F132" s="2">
         <v>3</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>79</v>
@@ -4980,23 +4921,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E133" s="2">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2">
         <v>3</v>
       </c>
       <c r="G133" s="2" t="s">
@@ -5006,55 +4947,55 @@
         <v>79</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E134" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E134" s="2">
         <v>9</v>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="F134" s="2">
         <v>4</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I134" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="D135" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E135" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F135" s="6" t="n">
+        <v>272</v>
+      </c>
+      <c r="E135" s="2">
+        <v>8</v>
+      </c>
+      <c r="F135" s="6">
         <v>3</v>
       </c>
       <c r="G135" s="2" t="s">
@@ -5067,12 +5008,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>62</v>
@@ -5080,10 +5021,10 @@
       <c r="D136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="2">
         <v>6</v>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -5096,8 +5037,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>134</v>
       </c>
       <c r="B137" s="2"/>
@@ -5109,8 +5050,8 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>135</v>
       </c>
       <c r="B138" s="2"/>
@@ -5122,8 +5063,8 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>136</v>
       </c>
       <c r="B139" s="2"/>
@@ -5135,8 +5076,8 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>137</v>
       </c>
       <c r="B140" s="2"/>
@@ -5148,8 +5089,8 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>138</v>
       </c>
       <c r="B141" s="2"/>
@@ -5161,8 +5102,8 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>139</v>
       </c>
       <c r="B142" s="2"/>
@@ -5174,8 +5115,8 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>140</v>
       </c>
       <c r="B143" s="2"/>
@@ -5187,8 +5128,8 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>141</v>
       </c>
       <c r="B144" s="2"/>
@@ -5200,8 +5141,8 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>142</v>
       </c>
       <c r="B145" s="2"/>
@@ -5213,8 +5154,8 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>143</v>
       </c>
       <c r="B146" s="2"/>
@@ -5226,8 +5167,8 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>144</v>
       </c>
       <c r="B147" s="2"/>
@@ -5239,8 +5180,8 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>145</v>
       </c>
       <c r="B148" s="2"/>
@@ -5252,8 +5193,8 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>146</v>
       </c>
       <c r="B149" s="2"/>
@@ -5266,58 +5207,33 @@
       <c r="I149" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>